--- a/PythonResources/Data/Consumption/Sympheny/base_1800_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1800_hea.xlsx
@@ -383,7 +383,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>37.56643187768857</v>
+        <v>37.56643187768856</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -503,7 +503,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1.086546222285005</v>
+        <v>1.086546222285004</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -631,7 +631,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>48.74797121573487</v>
+        <v>48.74797121573486</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -703,7 +703,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>9.81392333613314</v>
+        <v>9.813923336133138</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -727,7 +727,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>35.96421250932699</v>
+        <v>35.96421250932698</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -735,7 +735,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>44.45770428077144</v>
+        <v>44.45770428077143</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -775,7 +775,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>52.76597515578192</v>
+        <v>52.76597515578191</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -791,7 +791,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>44.22617816022898</v>
+        <v>44.22617816022897</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -823,7 +823,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>6.765662155912621</v>
+        <v>6.76566215591262</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -863,7 +863,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.7622807022685458</v>
+        <v>0.7622807022685457</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -879,7 +879,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0.2099194582171551</v>
+        <v>0.209919458217155</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1151,7 +1151,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>34.51937228872656</v>
+        <v>34.51937228872655</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>30.82081578082038</v>
+        <v>30.82081578082037</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1207,7 +1207,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>38.97024215287641</v>
+        <v>38.9702421528764</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1215,7 +1215,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>39.14080949737731</v>
+        <v>39.1408094973773</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>42.18054231037279</v>
+        <v>42.18054231037278</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1239,7 +1239,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>51.34663211554502</v>
+        <v>51.34663211554501</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1287,7 +1287,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>18.16917349864104</v>
+        <v>18.16917349864103</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1375,7 +1375,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>64.47592157653463</v>
+        <v>64.47592157653462</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1399,7 +1399,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>54.33038836015618</v>
+        <v>54.33038836015617</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>55.02819050320884</v>
+        <v>55.02819050320883</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>54.99771111518806</v>
+        <v>54.99771111518805</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>58.73026386357896</v>
+        <v>58.73026386357895</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1783,7 +1783,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>58.09576506487714</v>
+        <v>58.09576506487713</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>11.99636474683645</v>
+        <v>11.99636474683644</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>39.05669810928151</v>
+        <v>39.0566981092815</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>76.10117046711422</v>
+        <v>76.1011704671142</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>50.73792356824541</v>
+        <v>50.7379235682454</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1991,7 +1991,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>43.83639367880939</v>
+        <v>43.83639367880938</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2023,7 +2023,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>50.36836098849345</v>
+        <v>50.36836098849344</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2039,7 +2039,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>27.54223007131591</v>
+        <v>27.5422300713159</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2063,7 +2063,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>34.36931991693195</v>
+        <v>34.36931991693194</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2071,7 +2071,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>54.59737607637666</v>
+        <v>54.59737607637665</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>79.60424859223328</v>
+        <v>79.60424859223326</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>6.074307575710508</v>
+        <v>6.074307575710507</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>37.91313491642494</v>
+        <v>37.91313491642493</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2431,7 +2431,7 @@
         <v>261</v>
       </c>
       <c r="B261">
-        <v>1.597670905841551</v>
+        <v>1.59767090584155</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2487,7 +2487,7 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>50.01667574209984</v>
+        <v>50.01667574209983</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2503,7 +2503,7 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>55.25238984778477</v>
+        <v>55.25238984778476</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2583,7 +2583,7 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>5.737246574146094</v>
+        <v>5.737246574146093</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2591,7 +2591,7 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>6.769179008376558</v>
+        <v>6.769179008376557</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2607,7 +2607,7 @@
         <v>283</v>
       </c>
       <c r="B283">
-        <v>4.40342166299058</v>
+        <v>4.403421662990579</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2623,7 +2623,7 @@
         <v>285</v>
       </c>
       <c r="B285">
-        <v>0.7692089016225</v>
+        <v>0.7692089016224999</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2655,7 +2655,7 @@
         <v>289</v>
       </c>
       <c r="B289">
-        <v>24.58329694367937</v>
+        <v>24.58329694367936</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2863,7 +2863,7 @@
         <v>315</v>
       </c>
       <c r="B315">
-        <v>0.1989404309668238</v>
+        <v>0.1989404309668237</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>320</v>
       </c>
       <c r="B320">
-        <v>5.488018962868487</v>
+        <v>5.488018962868486</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2927,7 +2927,7 @@
         <v>323</v>
       </c>
       <c r="B323">
-        <v>4.118175621061492</v>
+        <v>4.118175621061491</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2935,7 +2935,7 @@
         <v>324</v>
       </c>
       <c r="B324">
-        <v>4.688462555192604</v>
+        <v>4.688462555192603</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -3055,7 +3055,7 @@
         <v>339</v>
       </c>
       <c r="B339">
-        <v>69.42618449056341</v>
+        <v>69.4261844905634</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3087,7 +3087,7 @@
         <v>343</v>
       </c>
       <c r="B343">
-        <v>80.53416299790572</v>
+        <v>80.53416299790571</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3103,7 +3103,7 @@
         <v>345</v>
       </c>
       <c r="B345">
-        <v>53.44355539716695</v>
+        <v>53.44355539716694</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3159,7 +3159,7 @@
         <v>352</v>
       </c>
       <c r="B352">
-        <v>31.8260494434288</v>
+        <v>31.82604944342879</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3199,7 +3199,7 @@
         <v>357</v>
       </c>
       <c r="B357">
-        <v>38.36651581323404</v>
+        <v>38.36651581323403</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>367</v>
       </c>
       <c r="B367">
-        <v>97.33299493397404</v>
+        <v>97.33299493397402</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>370</v>
       </c>
       <c r="B370">
-        <v>57.99612091173229</v>
+        <v>57.99612091173228</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>378</v>
       </c>
       <c r="B378">
-        <v>44.27717252095605</v>
+        <v>44.27717252095604</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>385</v>
       </c>
       <c r="B385">
-        <v>68.51942269694521</v>
+        <v>68.5194226969452</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>388</v>
       </c>
       <c r="B388">
-        <v>95.57046570746471</v>
+        <v>95.57046570746468</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>393</v>
       </c>
       <c r="B393">
-        <v>88.50862595988093</v>
+        <v>88.50862595988092</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>397</v>
       </c>
       <c r="B397">
-        <v>52.00428352630108</v>
+        <v>52.00428352630107</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>398</v>
       </c>
       <c r="B398">
-        <v>53.6167603810158</v>
+        <v>53.61676038101579</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>402</v>
       </c>
       <c r="B402">
-        <v>94.37825272219035</v>
+        <v>94.37825272219034</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>406</v>
       </c>
       <c r="B406">
-        <v>79.10485554235434</v>
+        <v>79.10485554235433</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>421</v>
       </c>
       <c r="B421">
-        <v>62.86989228467046</v>
+        <v>62.86989228467045</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>422</v>
       </c>
       <c r="B422">
-        <v>68.08626370180374</v>
+        <v>68.08626370180373</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>428</v>
       </c>
       <c r="B428">
-        <v>78.25172574881117</v>
+        <v>78.25172574881115</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3791,7 +3791,7 @@
         <v>431</v>
       </c>
       <c r="B431">
-        <v>82.90334927444404</v>
+        <v>82.90334927444403</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3991,7 +3991,7 @@
         <v>456</v>
       </c>
       <c r="B456">
-        <v>96.5440476978977</v>
+        <v>96.54404769789768</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4087,7 +4087,7 @@
         <v>468</v>
       </c>
       <c r="B468">
-        <v>40.67972552138804</v>
+        <v>40.67972552138803</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>472</v>
       </c>
       <c r="B472">
-        <v>41.86461173069586</v>
+        <v>41.86461173069585</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4127,7 +4127,7 @@
         <v>473</v>
       </c>
       <c r="B473">
-        <v>49.04133532543488</v>
+        <v>49.04133532543487</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4143,7 +4143,7 @@
         <v>475</v>
       </c>
       <c r="B475">
-        <v>49.14566861519832</v>
+        <v>49.14566861519831</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4263,7 +4263,7 @@
         <v>490</v>
       </c>
       <c r="B490">
-        <v>69.09032508025751</v>
+        <v>69.0903250802575</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4343,7 +4343,7 @@
         <v>500</v>
       </c>
       <c r="B500">
-        <v>87.09924733495852</v>
+        <v>87.09924733495851</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4495,7 +4495,7 @@
         <v>519</v>
       </c>
       <c r="B519">
-        <v>126.3405801985967</v>
+        <v>126.3405801985966</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4687,7 +4687,7 @@
         <v>543</v>
       </c>
       <c r="B543">
-        <v>105.580307032943</v>
+        <v>105.5803070329429</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4911,7 +4911,7 @@
         <v>571</v>
       </c>
       <c r="B571">
-        <v>96.35267230965184</v>
+        <v>96.35267230965182</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4943,7 +4943,7 @@
         <v>575</v>
       </c>
       <c r="B575">
-        <v>77.07475245754721</v>
+        <v>77.07475245754719</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -5031,7 +5031,7 @@
         <v>586</v>
       </c>
       <c r="B586">
-        <v>96.75740341404315</v>
+        <v>96.75740341404314</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5055,7 +5055,7 @@
         <v>589</v>
       </c>
       <c r="B589">
-        <v>66.86620896785656</v>
+        <v>66.86620896785655</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5079,7 +5079,7 @@
         <v>592</v>
       </c>
       <c r="B592">
-        <v>65.24288848471137</v>
+        <v>65.24288848471136</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5087,7 +5087,7 @@
         <v>593</v>
       </c>
       <c r="B593">
-        <v>55.67499828553443</v>
+        <v>55.67499828553442</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5119,7 +5119,7 @@
         <v>597</v>
       </c>
       <c r="B597">
-        <v>34.3795774032851</v>
+        <v>34.37957740328509</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5175,7 +5175,7 @@
         <v>604</v>
       </c>
       <c r="B604">
-        <v>90.55191724142784</v>
+        <v>90.55191724142782</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5239,7 +5239,7 @@
         <v>612</v>
       </c>
       <c r="B612">
-        <v>76.23832771320772</v>
+        <v>76.23832771320771</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5295,7 +5295,7 @@
         <v>619</v>
       </c>
       <c r="B619">
-        <v>35.77283712108113</v>
+        <v>35.77283712108112</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5351,7 +5351,7 @@
         <v>626</v>
       </c>
       <c r="B626">
-        <v>86.97674364079808</v>
+        <v>86.97674364079806</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5439,7 +5439,7 @@
         <v>637</v>
       </c>
       <c r="B637">
-        <v>52.23580964684354</v>
+        <v>52.23580964684353</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5463,7 +5463,7 @@
         <v>640</v>
       </c>
       <c r="B640">
-        <v>60.73516283906122</v>
+        <v>60.73516283906121</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5479,7 +5479,7 @@
         <v>642</v>
       </c>
       <c r="B642">
-        <v>97.99855926277397</v>
+        <v>97.99855926277394</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5511,7 +5511,7 @@
         <v>646</v>
       </c>
       <c r="B646">
-        <v>79.97644881133319</v>
+        <v>79.97644881133317</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5607,7 +5607,7 @@
         <v>658</v>
       </c>
       <c r="B658">
-        <v>93.88941022970324</v>
+        <v>93.88941022970322</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5671,7 +5671,7 @@
         <v>666</v>
       </c>
       <c r="B666">
-        <v>77.72126716883413</v>
+        <v>77.72126716883412</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5679,7 +5679,7 @@
         <v>667</v>
       </c>
       <c r="B667">
-        <v>77.57619700469677</v>
+        <v>77.57619700469675</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5687,7 +5687,7 @@
         <v>668</v>
       </c>
       <c r="B668">
-        <v>70.78134497333347</v>
+        <v>70.78134497333346</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5807,7 +5807,7 @@
         <v>683</v>
       </c>
       <c r="B683">
-        <v>63.85080105106998</v>
+        <v>63.85080105106997</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5815,7 +5815,7 @@
         <v>684</v>
       </c>
       <c r="B684">
-        <v>52.98724378997123</v>
+        <v>52.98724378997122</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -6047,7 +6047,7 @@
         <v>713</v>
       </c>
       <c r="B713">
-        <v>54.4394107865382</v>
+        <v>54.43941078653819</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>716</v>
       </c>
       <c r="B716">
-        <v>45.31640242404918</v>
+        <v>45.31640242404917</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6095,7 +6095,7 @@
         <v>719</v>
       </c>
       <c r="B719">
-        <v>58.67897643181322</v>
+        <v>58.67897643181321</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6175,7 +6175,7 @@
         <v>729</v>
       </c>
       <c r="B729">
-        <v>93.6470404807303</v>
+        <v>93.64704048073028</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6239,7 +6239,7 @@
         <v>737</v>
       </c>
       <c r="B737">
-        <v>40.83007096422131</v>
+        <v>40.8300709642213</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6255,7 +6255,7 @@
         <v>739</v>
       </c>
       <c r="B739">
-        <v>43.22240985281387</v>
+        <v>43.22240985281386</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6295,7 +6295,7 @@
         <v>744</v>
       </c>
       <c r="B744">
-        <v>77.36958192244052</v>
+        <v>77.3695819224405</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6311,7 +6311,7 @@
         <v>746</v>
       </c>
       <c r="B746">
-        <v>101.0069334746327</v>
+        <v>101.0069334746326</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6327,7 +6327,7 @@
         <v>748</v>
       </c>
       <c r="B748">
-        <v>118.7005112917341</v>
+        <v>118.700511291734</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6351,7 +6351,7 @@
         <v>751</v>
       </c>
       <c r="B751">
-        <v>126.3763348653134</v>
+        <v>126.3763348653133</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6375,7 +6375,7 @@
         <v>754</v>
       </c>
       <c r="B754">
-        <v>73.9890074914819</v>
+        <v>73.98900749148189</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6391,7 +6391,7 @@
         <v>756</v>
       </c>
       <c r="B756">
-        <v>48.88835224325366</v>
+        <v>48.88835224325365</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -6407,7 +6407,7 @@
         <v>758</v>
       </c>
       <c r="B758">
-        <v>41.19172062592941</v>
+        <v>41.1917206259294</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6415,7 +6415,7 @@
         <v>759</v>
       </c>
       <c r="B759">
-        <v>44.42458725340271</v>
+        <v>44.4245872534027</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6463,7 +6463,7 @@
         <v>765</v>
       </c>
       <c r="B765">
-        <v>35.35521089098872</v>
+        <v>35.35521089098871</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6583,7 +6583,7 @@
         <v>780</v>
       </c>
       <c r="B780">
-        <v>87.20387369576062</v>
+        <v>87.20387369576061</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6623,7 +6623,7 @@
         <v>785</v>
       </c>
       <c r="B785">
-        <v>98.59935489202972</v>
+        <v>98.59935489202969</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6647,7 +6647,7 @@
         <v>788</v>
       </c>
       <c r="B788">
-        <v>76.98272815140754</v>
+        <v>76.98272815140753</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6775,7 +6775,7 @@
         <v>804</v>
       </c>
       <c r="B804">
-        <v>96.82363746878062</v>
+        <v>96.8236374687806</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -7111,7 +7111,7 @@
         <v>846</v>
       </c>
       <c r="B846">
-        <v>183.8519616123831</v>
+        <v>183.851961612383</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7199,7 +7199,7 @@
         <v>857</v>
       </c>
       <c r="B857">
-        <v>83.55836304585215</v>
+        <v>83.55836304585213</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7303,7 +7303,7 @@
         <v>870</v>
       </c>
       <c r="B870">
-        <v>165.5490891059048</v>
+        <v>165.5490891059047</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -7335,7 +7335,7 @@
         <v>874</v>
       </c>
       <c r="B874">
-        <v>92.81852865443469</v>
+        <v>92.81852865443466</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7535,7 +7535,7 @@
         <v>899</v>
       </c>
       <c r="B899">
-        <v>89.83594469397816</v>
+        <v>89.83594469397815</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -7543,7 +7543,7 @@
         <v>900</v>
       </c>
       <c r="B900">
-        <v>90.18762994037178</v>
+        <v>90.18762994037176</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -7631,7 +7631,7 @@
         <v>911</v>
       </c>
       <c r="B911">
-        <v>39.71933172769481</v>
+        <v>39.7193317276948</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7663,7 +7663,7 @@
         <v>915</v>
       </c>
       <c r="B915">
-        <v>78.87831162946912</v>
+        <v>78.87831162946911</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7679,7 +7679,7 @@
         <v>917</v>
       </c>
       <c r="B917">
-        <v>79.42342376137923</v>
+        <v>79.42342376137921</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7727,7 +7727,7 @@
         <v>923</v>
       </c>
       <c r="B923">
-        <v>56.5008724724821</v>
+        <v>56.50087247248209</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7911,7 +7911,7 @@
         <v>946</v>
       </c>
       <c r="B946">
-        <v>39.25071113687532</v>
+        <v>39.25071113687531</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -7927,7 +7927,7 @@
         <v>948</v>
       </c>
       <c r="B948">
-        <v>20.48036101662827</v>
+        <v>20.48036101662826</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -7951,7 +7951,7 @@
         <v>951</v>
       </c>
       <c r="B951">
-        <v>29.46448301389568</v>
+        <v>29.46448301389567</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -8007,7 +8007,7 @@
         <v>958</v>
       </c>
       <c r="B958">
-        <v>8.427316330914717</v>
+        <v>8.427316330914715</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8079,7 +8079,7 @@
         <v>967</v>
       </c>
       <c r="B967">
-        <v>64.71829132550756</v>
+        <v>64.71829132550755</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -8239,7 +8239,7 @@
         <v>987</v>
       </c>
       <c r="B987">
-        <v>24.40115329315135</v>
+        <v>24.40115329315134</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -8319,7 +8319,7 @@
         <v>997</v>
       </c>
       <c r="B997">
-        <v>0.8846232073577244</v>
+        <v>0.8846232073577243</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8359,7 +8359,7 @@
         <v>1002</v>
       </c>
       <c r="B1002">
-        <v>17.27753417061776</v>
+        <v>17.27753417061775</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -8367,7 +8367,7 @@
         <v>1003</v>
       </c>
       <c r="B1003">
-        <v>15.17114469444707</v>
+        <v>15.17114469444706</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -8439,7 +8439,7 @@
         <v>1012</v>
       </c>
       <c r="B1012">
-        <v>74.81224403908162</v>
+        <v>74.81224403908161</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -8455,7 +8455,7 @@
         <v>1014</v>
       </c>
       <c r="B1014">
-        <v>81.53294909766359</v>
+        <v>81.53294909766358</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
@@ -8487,7 +8487,7 @@
         <v>1018</v>
       </c>
       <c r="B1018">
-        <v>66.24694986316514</v>
+        <v>66.24694986316513</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -8535,7 +8535,7 @@
         <v>1024</v>
       </c>
       <c r="B1024">
-        <v>48.09090594705614</v>
+        <v>48.09090594705613</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8567,7 +8567,7 @@
         <v>1028</v>
       </c>
       <c r="B1028">
-        <v>46.12410620659985</v>
+        <v>46.12410620659984</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8631,7 +8631,7 @@
         <v>1036</v>
       </c>
       <c r="B1036">
-        <v>117.274427617608</v>
+        <v>117.2744276176079</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
@@ -8791,7 +8791,7 @@
         <v>1056</v>
       </c>
       <c r="B1056">
-        <v>60.43447195339468</v>
+        <v>60.43447195339467</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -8799,7 +8799,7 @@
         <v>1057</v>
       </c>
       <c r="B1057">
-        <v>71.431669608123</v>
+        <v>71.43166960812299</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
@@ -8839,7 +8839,7 @@
         <v>1062</v>
       </c>
       <c r="B1062">
-        <v>74.87847809381908</v>
+        <v>74.87847809381907</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
@@ -8855,7 +8855,7 @@
         <v>1064</v>
       </c>
       <c r="B1064">
-        <v>56.00646163026041</v>
+        <v>56.0064616302604</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
@@ -8959,7 +8959,7 @@
         <v>1077</v>
       </c>
       <c r="B1077">
-        <v>3.767428201991594</v>
+        <v>3.767428201991593</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
@@ -9031,7 +9031,7 @@
         <v>1086</v>
       </c>
       <c r="B1086">
-        <v>67.82132748285389</v>
+        <v>67.82132748285387</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9071,7 +9071,7 @@
         <v>1091</v>
       </c>
       <c r="B1091">
-        <v>52.64376453266014</v>
+        <v>52.64376453266013</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -9095,7 +9095,7 @@
         <v>1094</v>
       </c>
       <c r="B1094">
-        <v>53.45351981248143</v>
+        <v>53.45351981248142</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -9159,7 +9159,7 @@
         <v>1102</v>
       </c>
       <c r="B1102">
-        <v>20.85027528162662</v>
+        <v>20.85027528162661</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
@@ -9223,7 +9223,7 @@
         <v>1110</v>
       </c>
       <c r="B1110">
-        <v>82.83447758035862</v>
+        <v>82.83447758035861</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -9263,7 +9263,7 @@
         <v>1115</v>
       </c>
       <c r="B1115">
-        <v>85.77456624020924</v>
+        <v>85.77456624020923</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -9319,7 +9319,7 @@
         <v>1122</v>
       </c>
       <c r="B1122">
-        <v>101.6566719673449</v>
+        <v>101.6566719673448</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
@@ -9327,7 +9327,7 @@
         <v>1123</v>
       </c>
       <c r="B1123">
-        <v>84.34789642400581</v>
+        <v>84.3478964240058</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
@@ -9399,7 +9399,7 @@
         <v>1132</v>
       </c>
       <c r="B1132">
-        <v>129.8518643127983</v>
+        <v>129.8518643127982</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
@@ -9447,7 +9447,7 @@
         <v>1138</v>
       </c>
       <c r="B1138">
-        <v>82.37083919719637</v>
+        <v>82.37083919719636</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
@@ -9455,7 +9455,7 @@
         <v>1139</v>
       </c>
       <c r="B1139">
-        <v>81.58335731631334</v>
+        <v>81.58335731631333</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
@@ -9495,7 +9495,7 @@
         <v>1144</v>
       </c>
       <c r="B1144">
-        <v>62.79838295123709</v>
+        <v>62.79838295123708</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
@@ -9503,7 +9503,7 @@
         <v>1145</v>
       </c>
       <c r="B1145">
-        <v>79.30619534591469</v>
+        <v>79.30619534591467</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
@@ -9519,7 +9519,7 @@
         <v>1147</v>
       </c>
       <c r="B1147">
-        <v>69.8235888189882</v>
+        <v>69.82358881898818</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
@@ -9559,7 +9559,7 @@
         <v>1152</v>
       </c>
       <c r="B1152">
-        <v>84.75790280709303</v>
+        <v>84.75790280709302</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
@@ -9567,7 +9567,7 @@
         <v>1153</v>
       </c>
       <c r="B1153">
-        <v>89.7491956665344</v>
+        <v>89.74919566653439</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
@@ -9687,7 +9687,7 @@
         <v>1168</v>
       </c>
       <c r="B1168">
-        <v>35.09027467203886</v>
+        <v>35.09027467203885</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
@@ -9703,7 +9703,7 @@
         <v>1170</v>
       </c>
       <c r="B1170">
-        <v>48.54428684386524</v>
+        <v>48.54428684386523</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
@@ -9711,7 +9711,7 @@
         <v>1171</v>
       </c>
       <c r="B1171">
-        <v>58.17958338193429</v>
+        <v>58.17958338193428</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
@@ -9855,7 +9855,7 @@
         <v>1189</v>
       </c>
       <c r="B1189">
-        <v>22.52664162276952</v>
+        <v>22.52664162276951</v>
       </c>
     </row>
     <row r="1190" spans="1:2">
@@ -9887,7 +9887,7 @@
         <v>1193</v>
       </c>
       <c r="B1193">
-        <v>37.03919707913681</v>
+        <v>37.0391970791368</v>
       </c>
     </row>
     <row r="1194" spans="1:2">
@@ -9903,7 +9903,7 @@
         <v>1195</v>
       </c>
       <c r="B1195">
-        <v>41.31422432008985</v>
+        <v>41.31422432008984</v>
       </c>
     </row>
     <row r="1196" spans="1:2">
@@ -9935,7 +9935,7 @@
         <v>1199</v>
       </c>
       <c r="B1199">
-        <v>37.17664739626898</v>
+        <v>37.17664739626897</v>
       </c>
     </row>
     <row r="1200" spans="1:2">
@@ -9983,7 +9983,7 @@
         <v>1205</v>
       </c>
       <c r="B1205">
-        <v>64.42492721580756</v>
+        <v>64.42492721580754</v>
       </c>
     </row>
     <row r="1206" spans="1:2">
@@ -10183,7 +10183,7 @@
         <v>1230</v>
       </c>
       <c r="B1230">
-        <v>26.06441935886608</v>
+        <v>26.06441935886607</v>
       </c>
     </row>
     <row r="1231" spans="1:2">
@@ -10279,7 +10279,7 @@
         <v>1242</v>
       </c>
       <c r="B1242">
-        <v>2.436991192043005</v>
+        <v>2.436991192043004</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
@@ -10431,7 +10431,7 @@
         <v>1261</v>
       </c>
       <c r="B1261">
-        <v>10.56362836013273</v>
+        <v>10.56362836013272</v>
       </c>
     </row>
     <row r="1262" spans="1:2">
@@ -10767,7 +10767,7 @@
         <v>1303</v>
       </c>
       <c r="B1303">
-        <v>27.22331016704464</v>
+        <v>27.22331016704463</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
@@ -10783,7 +10783,7 @@
         <v>1305</v>
       </c>
       <c r="B1305">
-        <v>5.363932685099273</v>
+        <v>5.363932685099272</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
@@ -10911,7 +10911,7 @@
         <v>1321</v>
       </c>
       <c r="B1321">
-        <v>9.213244935292847</v>
+        <v>9.213244935292844</v>
       </c>
     </row>
     <row r="1322" spans="1:2">
@@ -10983,7 +10983,7 @@
         <v>1330</v>
       </c>
       <c r="B1330">
-        <v>0.5992657984339457</v>
+        <v>0.5992657984339456</v>
       </c>
     </row>
     <row r="1331" spans="1:2">
@@ -11375,7 +11375,7 @@
         <v>1379</v>
       </c>
       <c r="B1379">
-        <v>8.652746573853024</v>
+        <v>8.652746573853022</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
@@ -11671,7 +11671,7 @@
         <v>1416</v>
       </c>
       <c r="B1416">
-        <v>22.73129312906673</v>
+        <v>22.73129312906672</v>
       </c>
     </row>
     <row r="1417" spans="1:2">
@@ -11919,7 +11919,7 @@
         <v>1447</v>
       </c>
       <c r="B1447">
-        <v>95.03004271217318</v>
+        <v>95.03004271217316</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
@@ -12047,7 +12047,7 @@
         <v>1463</v>
       </c>
       <c r="B1463">
-        <v>55.02789743217018</v>
+        <v>55.02789743217017</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
@@ -12055,7 +12055,7 @@
         <v>1464</v>
       </c>
       <c r="B1464">
-        <v>76.10644574581012</v>
+        <v>76.10644574581011</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
@@ -12223,7 +12223,7 @@
         <v>1485</v>
       </c>
       <c r="B1485">
-        <v>36.91171117731912</v>
+        <v>36.91171117731911</v>
       </c>
     </row>
     <row r="1486" spans="1:2">
@@ -12247,7 +12247,7 @@
         <v>1488</v>
       </c>
       <c r="B1488">
-        <v>73.35187105343213</v>
+        <v>73.35187105343212</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
@@ -12511,7 +12511,7 @@
         <v>1521</v>
       </c>
       <c r="B1521">
-        <v>39.14872241542117</v>
+        <v>39.14872241542116</v>
       </c>
     </row>
     <row r="1522" spans="1:2">
@@ -12599,7 +12599,7 @@
         <v>1532</v>
       </c>
       <c r="B1532">
-        <v>6.820847432492553</v>
+        <v>6.820847432492552</v>
       </c>
     </row>
     <row r="1533" spans="1:2">
@@ -12839,7 +12839,7 @@
         <v>1562</v>
       </c>
       <c r="B1562">
-        <v>34.56802208114434</v>
+        <v>34.56802208114433</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
@@ -12919,7 +12919,7 @@
         <v>1572</v>
       </c>
       <c r="B1572">
-        <v>0.9982790868609808</v>
+        <v>0.9982790868609804</v>
       </c>
     </row>
     <row r="1573" spans="1:2">
@@ -13111,7 +13111,7 @@
         <v>1596</v>
       </c>
       <c r="B1596">
-        <v>63.99587121520735</v>
+        <v>63.99587121520734</v>
       </c>
     </row>
     <row r="1597" spans="1:2">
@@ -13191,7 +13191,7 @@
         <v>1606</v>
       </c>
       <c r="B1606">
-        <v>50.00671132678535</v>
+        <v>50.00671132678534</v>
       </c>
     </row>
     <row r="1607" spans="1:2">
@@ -13255,7 +13255,7 @@
         <v>1614</v>
       </c>
       <c r="B1614">
-        <v>129.133840268078</v>
+        <v>129.1338402680779</v>
       </c>
     </row>
     <row r="1615" spans="1:2">
@@ -13471,7 +13471,7 @@
         <v>1641</v>
       </c>
       <c r="B1641">
-        <v>61.45875523351608</v>
+        <v>61.45875523351607</v>
       </c>
     </row>
     <row r="1642" spans="1:2">
@@ -13479,7 +13479,7 @@
         <v>1642</v>
       </c>
       <c r="B1642">
-        <v>50.45540308697587</v>
+        <v>50.45540308697586</v>
       </c>
     </row>
     <row r="1643" spans="1:2">
@@ -13511,7 +13511,7 @@
         <v>1646</v>
       </c>
       <c r="B1646">
-        <v>19.23557108701807</v>
+        <v>19.23557108701806</v>
       </c>
     </row>
     <row r="1647" spans="1:2">
@@ -13575,7 +13575,7 @@
         <v>1654</v>
       </c>
       <c r="B1654">
-        <v>27.26439872666496</v>
+        <v>27.26439872666495</v>
       </c>
     </row>
     <row r="1655" spans="1:2">
@@ -13623,7 +13623,7 @@
         <v>1660</v>
       </c>
       <c r="B1660">
-        <v>80.34278760965987</v>
+        <v>80.34278760965985</v>
       </c>
     </row>
     <row r="1661" spans="1:2">
@@ -13639,7 +13639,7 @@
         <v>1662</v>
       </c>
       <c r="B1662">
-        <v>81.1833153485406</v>
+        <v>81.18331534854059</v>
       </c>
     </row>
     <row r="1663" spans="1:2">
@@ -13679,7 +13679,7 @@
         <v>1667</v>
       </c>
       <c r="B1667">
-        <v>14.55241311762524</v>
+        <v>14.55241311762523</v>
       </c>
     </row>
     <row r="1668" spans="1:2">
@@ -13751,7 +13751,7 @@
         <v>1676</v>
       </c>
       <c r="B1676">
-        <v>6.967295030511627</v>
+        <v>6.967295030511626</v>
       </c>
     </row>
     <row r="1677" spans="1:2">
@@ -13799,7 +13799,7 @@
         <v>1682</v>
       </c>
       <c r="B1682">
-        <v>61.99624751842099</v>
+        <v>61.99624751842098</v>
       </c>
     </row>
     <row r="1683" spans="1:2">
@@ -13807,7 +13807,7 @@
         <v>1683</v>
       </c>
       <c r="B1683">
-        <v>68.40483192082863</v>
+        <v>68.40483192082861</v>
       </c>
     </row>
     <row r="1684" spans="1:2">
@@ -13855,7 +13855,7 @@
         <v>1689</v>
       </c>
       <c r="B1689">
-        <v>39.360026634296</v>
+        <v>39.36002663429599</v>
       </c>
     </row>
     <row r="1690" spans="1:2">
@@ -13911,7 +13911,7 @@
         <v>1696</v>
       </c>
       <c r="B1696">
-        <v>4.409224469556074</v>
+        <v>4.409224469556073</v>
       </c>
     </row>
     <row r="1697" spans="1:2">
@@ -13983,7 +13983,7 @@
         <v>1705</v>
       </c>
       <c r="B1705">
-        <v>47.50769458012006</v>
+        <v>47.50769458012005</v>
       </c>
     </row>
     <row r="1706" spans="1:2">
@@ -13999,7 +13999,7 @@
         <v>1707</v>
       </c>
       <c r="B1707">
-        <v>59.70091514362533</v>
+        <v>59.70091514362532</v>
       </c>
     </row>
     <row r="1708" spans="1:2">
@@ -14015,7 +14015,7 @@
         <v>1709</v>
       </c>
       <c r="B1709">
-        <v>63.1758584490329</v>
+        <v>63.17585844903289</v>
       </c>
     </row>
     <row r="1710" spans="1:2">
@@ -14023,7 +14023,7 @@
         <v>1710</v>
       </c>
       <c r="B1710">
-        <v>62.78079868891741</v>
+        <v>62.7807986889174</v>
       </c>
     </row>
     <row r="1711" spans="1:2">
@@ -14047,7 +14047,7 @@
         <v>1713</v>
       </c>
       <c r="B1713">
-        <v>38.4403697149767</v>
+        <v>38.44036971497669</v>
       </c>
     </row>
     <row r="1714" spans="1:2">
@@ -14087,7 +14087,7 @@
         <v>1718</v>
       </c>
       <c r="B1718">
-        <v>18.8482777094271</v>
+        <v>18.84827770942709</v>
       </c>
     </row>
     <row r="1719" spans="1:2">
@@ -14167,7 +14167,7 @@
         <v>1728</v>
       </c>
       <c r="B1728">
-        <v>38.62646982452665</v>
+        <v>38.62646982452664</v>
       </c>
     </row>
     <row r="1729" spans="1:2">
@@ -14199,7 +14199,7 @@
         <v>1732</v>
       </c>
       <c r="B1732">
-        <v>63.31858404486098</v>
+        <v>63.31858404486097</v>
       </c>
     </row>
     <row r="1733" spans="1:2">
@@ -14223,7 +14223,7 @@
         <v>1735</v>
       </c>
       <c r="B1735">
-        <v>62.78578089657465</v>
+        <v>62.78578089657464</v>
       </c>
     </row>
     <row r="1736" spans="1:2">
@@ -14279,7 +14279,7 @@
         <v>1742</v>
       </c>
       <c r="B1742">
-        <v>15.14681979823818</v>
+        <v>15.14681979823817</v>
       </c>
     </row>
     <row r="1743" spans="1:2">
@@ -14303,7 +14303,7 @@
         <v>1745</v>
       </c>
       <c r="B1745">
-        <v>6.748517500150933</v>
+        <v>6.748517500150932</v>
       </c>
     </row>
     <row r="1746" spans="1:2">
@@ -14319,7 +14319,7 @@
         <v>1747</v>
       </c>
       <c r="B1747">
-        <v>2.744217561871693</v>
+        <v>2.744217561871692</v>
       </c>
     </row>
     <row r="1748" spans="1:2">
@@ -14359,7 +14359,7 @@
         <v>1752</v>
       </c>
       <c r="B1752">
-        <v>47.19645313706171</v>
+        <v>47.1964531370617</v>
       </c>
     </row>
     <row r="1753" spans="1:2">
@@ -14367,7 +14367,7 @@
         <v>1753</v>
       </c>
       <c r="B1753">
-        <v>57.83581105358453</v>
+        <v>57.83581105358452</v>
       </c>
     </row>
     <row r="1754" spans="1:2">
@@ -14391,7 +14391,7 @@
         <v>1756</v>
       </c>
       <c r="B1756">
-        <v>78.03719774851106</v>
+        <v>78.03719774851105</v>
       </c>
     </row>
     <row r="1757" spans="1:2">
@@ -14423,7 +14423,7 @@
         <v>1760</v>
       </c>
       <c r="B1760">
-        <v>47.66038459126262</v>
+        <v>47.66038459126261</v>
       </c>
     </row>
     <row r="1761" spans="1:2">
@@ -14431,7 +14431,7 @@
         <v>1761</v>
       </c>
       <c r="B1761">
-        <v>42.69517505426211</v>
+        <v>42.6951750542621</v>
       </c>
     </row>
     <row r="1762" spans="1:2">
@@ -14463,7 +14463,7 @@
         <v>1765</v>
       </c>
       <c r="B1765">
-        <v>18.8100319388818</v>
+        <v>18.81003193888179</v>
       </c>
     </row>
     <row r="1766" spans="1:2">
@@ -14487,7 +14487,7 @@
         <v>1768</v>
       </c>
       <c r="B1768">
-        <v>6.908387751740697</v>
+        <v>6.908387751740696</v>
       </c>
     </row>
     <row r="1769" spans="1:2">
@@ -14519,7 +14519,7 @@
         <v>1772</v>
       </c>
       <c r="B1772">
-        <v>0.846383298233192</v>
+        <v>0.8463832982331919</v>
       </c>
     </row>
     <row r="1773" spans="1:2">
@@ -14535,7 +14535,7 @@
         <v>1774</v>
       </c>
       <c r="B1774">
-        <v>7.784845999961315</v>
+        <v>7.784845999961314</v>
       </c>
     </row>
     <row r="1775" spans="1:2">
@@ -14591,7 +14591,7 @@
         <v>1781</v>
       </c>
       <c r="B1781">
-        <v>73.82078471529029</v>
+        <v>73.82078471529027</v>
       </c>
     </row>
     <row r="1782" spans="1:2">
@@ -14607,7 +14607,7 @@
         <v>1783</v>
       </c>
       <c r="B1783">
-        <v>72.91666056102004</v>
+        <v>72.91666056102002</v>
       </c>
     </row>
     <row r="1784" spans="1:2">
@@ -14743,7 +14743,7 @@
         <v>1800</v>
       </c>
       <c r="B1800">
-        <v>46.57748710340895</v>
+        <v>46.57748710340894</v>
       </c>
     </row>
     <row r="1801" spans="1:2">
@@ -14775,7 +14775,7 @@
         <v>1804</v>
       </c>
       <c r="B1804">
-        <v>63.41236677723261</v>
+        <v>63.4123667772326</v>
       </c>
     </row>
     <row r="1805" spans="1:2">
@@ -14823,7 +14823,7 @@
         <v>1810</v>
       </c>
       <c r="B1810">
-        <v>45.96115870910414</v>
+        <v>45.96115870910413</v>
       </c>
     </row>
     <row r="1811" spans="1:2">
@@ -14831,7 +14831,7 @@
         <v>1811</v>
       </c>
       <c r="B1811">
-        <v>47.20202148679628</v>
+        <v>47.20202148679627</v>
       </c>
     </row>
     <row r="1812" spans="1:2">
@@ -14839,7 +14839,7 @@
         <v>1812</v>
       </c>
       <c r="B1812">
-        <v>39.63785797894696</v>
+        <v>39.63785797894695</v>
       </c>
     </row>
     <row r="1813" spans="1:2">
@@ -15095,7 +15095,7 @@
         <v>1844</v>
       </c>
       <c r="B1844">
-        <v>0.6187872603191779</v>
+        <v>0.6187872603191777</v>
       </c>
     </row>
     <row r="1845" spans="1:2">
@@ -15175,7 +15175,7 @@
         <v>1854</v>
       </c>
       <c r="B1854">
-        <v>57.65498622273048</v>
+        <v>57.65498622273047</v>
       </c>
     </row>
     <row r="1855" spans="1:2">
@@ -15367,7 +15367,7 @@
         <v>1878</v>
       </c>
       <c r="B1878">
-        <v>36.62655305670163</v>
+        <v>36.62655305670162</v>
       </c>
     </row>
     <row r="1879" spans="1:2">
@@ -15375,7 +15375,7 @@
         <v>1879</v>
       </c>
       <c r="B1879">
-        <v>35.97417692464148</v>
+        <v>35.97417692464147</v>
       </c>
     </row>
     <row r="1880" spans="1:2">
@@ -15399,7 +15399,7 @@
         <v>1882</v>
       </c>
       <c r="B1882">
-        <v>30.49990299348621</v>
+        <v>30.4999029934862</v>
       </c>
     </row>
     <row r="1883" spans="1:2">
@@ -15567,7 +15567,7 @@
         <v>1903</v>
       </c>
       <c r="B1903">
-        <v>47.36760662363994</v>
+        <v>47.36760662363993</v>
       </c>
     </row>
     <row r="1904" spans="1:2">
@@ -15599,7 +15599,7 @@
         <v>1907</v>
       </c>
       <c r="B1907">
-        <v>10.36817928444948</v>
+        <v>10.36817928444947</v>
       </c>
     </row>
     <row r="1908" spans="1:2">
@@ -15607,7 +15607,7 @@
         <v>1908</v>
       </c>
       <c r="B1908">
-        <v>7.145833907264118</v>
+        <v>7.145833907264117</v>
       </c>
     </row>
     <row r="1909" spans="1:2">
@@ -15735,7 +15735,7 @@
         <v>1924</v>
       </c>
       <c r="B1924">
-        <v>65.55412992776972</v>
+        <v>65.55412992776971</v>
       </c>
     </row>
     <row r="1925" spans="1:2">
@@ -15743,7 +15743,7 @@
         <v>1925</v>
       </c>
       <c r="B1925">
-        <v>71.66817793632271</v>
+        <v>71.66817793632269</v>
       </c>
     </row>
     <row r="1926" spans="1:2">
@@ -15759,7 +15759,7 @@
         <v>1927</v>
       </c>
       <c r="B1927">
-        <v>72.4325072051515</v>
+        <v>72.43250720515148</v>
       </c>
     </row>
     <row r="1928" spans="1:2">
@@ -15927,7 +15927,7 @@
         <v>1948</v>
       </c>
       <c r="B1948">
-        <v>43.45393597335633</v>
+        <v>43.45393597335632</v>
       </c>
     </row>
     <row r="1949" spans="1:2">
@@ -15991,7 +15991,7 @@
         <v>1956</v>
       </c>
       <c r="B1956">
-        <v>40.99038082236906</v>
+        <v>40.99038082236905</v>
       </c>
     </row>
     <row r="1957" spans="1:2">
@@ -16167,7 +16167,7 @@
         <v>1978</v>
       </c>
       <c r="B1978">
-        <v>41.52552853896468</v>
+        <v>41.52552853896467</v>
       </c>
     </row>
     <row r="1979" spans="1:2">
@@ -16223,7 +16223,7 @@
         <v>1985</v>
       </c>
       <c r="B1985">
-        <v>30.43484122290339</v>
+        <v>30.43484122290338</v>
       </c>
     </row>
     <row r="1986" spans="1:2">
@@ -16239,7 +16239,7 @@
         <v>1987</v>
       </c>
       <c r="B1987">
-        <v>8.553424798850694</v>
+        <v>8.553424798850692</v>
       </c>
     </row>
     <row r="1988" spans="1:2">
@@ -16319,7 +16319,7 @@
         <v>1997</v>
       </c>
       <c r="B1997">
-        <v>56.27374241751956</v>
+        <v>56.27374241751955</v>
       </c>
     </row>
     <row r="1998" spans="1:2">
@@ -16359,7 +16359,7 @@
         <v>2002</v>
       </c>
       <c r="B2002">
-        <v>24.84747117792871</v>
+        <v>24.8474711779287</v>
       </c>
     </row>
     <row r="2003" spans="1:2">
@@ -16647,7 +16647,7 @@
         <v>2038</v>
       </c>
       <c r="B2038">
-        <v>6.886700494879757</v>
+        <v>6.886700494879756</v>
       </c>
     </row>
     <row r="2039" spans="1:2">
@@ -16727,7 +16727,7 @@
         <v>2048</v>
       </c>
       <c r="B2048">
-        <v>42.88625737146931</v>
+        <v>42.8862573714693</v>
       </c>
     </row>
     <row r="2049" spans="1:2">
@@ -16823,7 +16823,7 @@
         <v>2060</v>
       </c>
       <c r="B2060">
-        <v>5.118602918635861</v>
+        <v>5.11860291863586</v>
       </c>
     </row>
     <row r="2061" spans="1:2">
@@ -16887,7 +16887,7 @@
         <v>2068</v>
       </c>
       <c r="B2068">
-        <v>56.25850272350917</v>
+        <v>56.25850272350916</v>
       </c>
     </row>
     <row r="2069" spans="1:2">
@@ -16935,7 +16935,7 @@
         <v>2074</v>
       </c>
       <c r="B2074">
-        <v>44.03480277198312</v>
+        <v>44.03480277198311</v>
       </c>
     </row>
     <row r="2075" spans="1:2">
@@ -17071,7 +17071,7 @@
         <v>2091</v>
       </c>
       <c r="B2091">
-        <v>40.51912259220162</v>
+        <v>40.51912259220161</v>
       </c>
     </row>
     <row r="2092" spans="1:2">
@@ -17175,7 +17175,7 @@
         <v>2104</v>
       </c>
       <c r="B2104">
-        <v>0.7854362450331787</v>
+        <v>0.7854362450331785</v>
       </c>
     </row>
     <row r="2105" spans="1:2">
@@ -17223,7 +17223,7 @@
         <v>2110</v>
       </c>
       <c r="B2110">
-        <v>0.3576814798446255</v>
+        <v>0.3576814798446254</v>
       </c>
     </row>
     <row r="2111" spans="1:2">
@@ -17287,7 +17287,7 @@
         <v>2118</v>
       </c>
       <c r="B2118">
-        <v>45.98665588946768</v>
+        <v>45.98665588946767</v>
       </c>
     </row>
     <row r="2119" spans="1:2">
@@ -17303,7 +17303,7 @@
         <v>2120</v>
       </c>
       <c r="B2120">
-        <v>13.92509455937063</v>
+        <v>13.92509455937062</v>
       </c>
     </row>
     <row r="2121" spans="1:2">
@@ -17447,7 +17447,7 @@
         <v>2138</v>
       </c>
       <c r="B2138">
-        <v>26.82001511074276</v>
+        <v>26.82001511074275</v>
       </c>
     </row>
     <row r="2139" spans="1:2">
@@ -17599,7 +17599,7 @@
         <v>2157</v>
       </c>
       <c r="B2157">
-        <v>1.413305776840472</v>
+        <v>1.413305776840471</v>
       </c>
     </row>
     <row r="2158" spans="1:2">
@@ -17655,7 +17655,7 @@
         <v>2164</v>
       </c>
       <c r="B2164">
-        <v>53.93796623938864</v>
+        <v>53.93796623938863</v>
       </c>
     </row>
     <row r="2165" spans="1:2">
@@ -17719,7 +17719,7 @@
         <v>2172</v>
       </c>
       <c r="B2172">
-        <v>3.803681089474003</v>
+        <v>3.803681089474002</v>
       </c>
     </row>
     <row r="2173" spans="1:2">
@@ -17759,7 +17759,7 @@
         <v>2177</v>
       </c>
       <c r="B2177">
-        <v>0.2972707466453624</v>
+        <v>0.2972707466453623</v>
       </c>
     </row>
     <row r="2178" spans="1:2">
@@ -17895,7 +17895,7 @@
         <v>2194</v>
       </c>
       <c r="B2194">
-        <v>7.179800840644968</v>
+        <v>7.179800840644967</v>
       </c>
     </row>
     <row r="2195" spans="1:2">
@@ -17903,7 +17903,7 @@
         <v>2195</v>
       </c>
       <c r="B2195">
-        <v>3.611455795216026</v>
+        <v>3.611455795216025</v>
       </c>
     </row>
     <row r="2196" spans="1:2">
@@ -18039,7 +18039,7 @@
         <v>2212</v>
       </c>
       <c r="B2212">
-        <v>30.71384485170899</v>
+        <v>30.71384485170898</v>
       </c>
     </row>
     <row r="2213" spans="1:2">
@@ -18071,7 +18071,7 @@
         <v>2216</v>
       </c>
       <c r="B2216">
-        <v>7.809200203274073</v>
+        <v>7.809200203274072</v>
       </c>
     </row>
     <row r="2217" spans="1:2">
@@ -18095,7 +18095,7 @@
         <v>2219</v>
       </c>
       <c r="B2219">
-        <v>0.6302902985866357</v>
+        <v>0.6302902985866355</v>
       </c>
     </row>
     <row r="2220" spans="1:2">
@@ -18407,7 +18407,7 @@
         <v>2258</v>
       </c>
       <c r="B2258">
-        <v>0.5752427653948752</v>
+        <v>0.5752427653948751</v>
       </c>
     </row>
     <row r="2259" spans="1:2">
@@ -18615,7 +18615,7 @@
         <v>2284</v>
       </c>
       <c r="B2284">
-        <v>20.30542691365131</v>
+        <v>20.3054269136513</v>
       </c>
     </row>
     <row r="2285" spans="1:2">
@@ -18655,7 +18655,7 @@
         <v>2289</v>
       </c>
       <c r="B2289">
-        <v>3.672355957049854</v>
+        <v>3.672355957049853</v>
       </c>
     </row>
     <row r="2290" spans="1:2">
@@ -18679,7 +18679,7 @@
         <v>2292</v>
       </c>
       <c r="B2292">
-        <v>0.6002798242277139</v>
+        <v>0.6002798242277138</v>
       </c>
     </row>
     <row r="2293" spans="1:2">
@@ -18791,7 +18791,7 @@
         <v>2306</v>
       </c>
       <c r="B2306">
-        <v>0.7597192613906456</v>
+        <v>0.7597192613906455</v>
       </c>
     </row>
     <row r="2307" spans="1:2">
@@ -18799,7 +18799,7 @@
         <v>2307</v>
       </c>
       <c r="B2307">
-        <v>0.9445415812120364</v>
+        <v>0.9445415812120362</v>
       </c>
     </row>
     <row r="2308" spans="1:2">
@@ -18967,7 +18967,7 @@
         <v>2328</v>
       </c>
       <c r="B2328">
-        <v>0.9881358982129116</v>
+        <v>0.9881358982129114</v>
       </c>
     </row>
     <row r="2329" spans="1:2">
@@ -19007,7 +19007,7 @@
         <v>2333</v>
       </c>
       <c r="B2333">
-        <v>28.37950472166751</v>
+        <v>28.3795047216675</v>
       </c>
     </row>
     <row r="2334" spans="1:2">
@@ -19055,7 +19055,7 @@
         <v>2339</v>
       </c>
       <c r="B2339">
-        <v>0.3778535594356859</v>
+        <v>0.3778535594356858</v>
       </c>
     </row>
     <row r="2340" spans="1:2">
@@ -19223,7 +19223,7 @@
         <v>2360</v>
       </c>
       <c r="B2360">
-        <v>28.4131785840097</v>
+        <v>28.41317858400969</v>
       </c>
     </row>
     <row r="2361" spans="1:2">
@@ -19455,7 +19455,7 @@
         <v>2389</v>
       </c>
       <c r="B2389">
-        <v>13.36837681432954</v>
+        <v>13.36837681432953</v>
       </c>
     </row>
     <row r="2390" spans="1:2">
@@ -19511,7 +19511,7 @@
         <v>2396</v>
       </c>
       <c r="B2396">
-        <v>0.5766817441947024</v>
+        <v>0.5766817441947023</v>
       </c>
     </row>
     <row r="2397" spans="1:2">
@@ -19727,7 +19727,7 @@
         <v>2423</v>
       </c>
       <c r="B2423">
-        <v>4.773541077715993</v>
+        <v>4.773541077715992</v>
       </c>
     </row>
     <row r="2424" spans="1:2">
@@ -20175,7 +20175,7 @@
         <v>2479</v>
       </c>
       <c r="B2479">
-        <v>25.73568157479965</v>
+        <v>25.73568157479964</v>
       </c>
     </row>
     <row r="2480" spans="1:2">
@@ -20319,7 +20319,7 @@
         <v>2497</v>
       </c>
       <c r="B2497">
-        <v>24.37184618928521</v>
+        <v>24.3718461892852</v>
       </c>
     </row>
     <row r="2498" spans="1:2">
@@ -20383,7 +20383,7 @@
         <v>2505</v>
       </c>
       <c r="B2505">
-        <v>7.498310445462118</v>
+        <v>7.498310445462117</v>
       </c>
     </row>
     <row r="2506" spans="1:2">
@@ -20487,7 +20487,7 @@
         <v>2518</v>
       </c>
       <c r="B2518">
-        <v>0.6940479030474114</v>
+        <v>0.6940479030474113</v>
       </c>
     </row>
     <row r="2519" spans="1:2">
@@ -20895,7 +20895,7 @@
         <v>2569</v>
       </c>
       <c r="B2569">
-        <v>41.31422432008985</v>
+        <v>41.31422432008984</v>
       </c>
     </row>
     <row r="2570" spans="1:2">
@@ -20975,7 +20975,7 @@
         <v>2579</v>
       </c>
       <c r="B2579">
-        <v>19.70079205378909</v>
+        <v>19.70079205378908</v>
       </c>
     </row>
     <row r="2580" spans="1:2">
@@ -20991,7 +20991,7 @@
         <v>2581</v>
       </c>
       <c r="B2581">
-        <v>16.62512873145374</v>
+        <v>16.62512873145373</v>
       </c>
     </row>
     <row r="2582" spans="1:2">
@@ -21095,7 +21095,7 @@
         <v>2594</v>
       </c>
       <c r="B2594">
-        <v>45.76743875254899</v>
+        <v>45.76743875254898</v>
       </c>
     </row>
     <row r="2595" spans="1:2">
@@ -21135,7 +21135,7 @@
         <v>2599</v>
       </c>
       <c r="B2599">
-        <v>27.75942501806784</v>
+        <v>27.75942501806783</v>
       </c>
     </row>
     <row r="2600" spans="1:2">
@@ -21319,7 +21319,7 @@
         <v>2622</v>
       </c>
       <c r="B2622">
-        <v>43.86687306683017</v>
+        <v>43.86687306683016</v>
       </c>
     </row>
     <row r="2623" spans="1:2">
@@ -21615,7 +21615,7 @@
         <v>2659</v>
       </c>
       <c r="B2659">
-        <v>1.441698499065983</v>
+        <v>1.441698499065982</v>
       </c>
     </row>
     <row r="2660" spans="1:2">
@@ -21663,7 +21663,7 @@
         <v>2665</v>
       </c>
       <c r="B2665">
-        <v>27.26952746984153</v>
+        <v>27.26952746984152</v>
       </c>
     </row>
     <row r="2666" spans="1:2">
@@ -21695,7 +21695,7 @@
         <v>2669</v>
       </c>
       <c r="B2669">
-        <v>42.16237190597578</v>
+        <v>42.16237190597577</v>
       </c>
     </row>
     <row r="2670" spans="1:2">
@@ -21759,7 +21759,7 @@
         <v>2677</v>
       </c>
       <c r="B2677">
-        <v>0.111231302800411</v>
+        <v>0.1112313028004109</v>
       </c>
     </row>
     <row r="2678" spans="1:2">
@@ -22031,7 +22031,7 @@
         <v>2711</v>
       </c>
       <c r="B2711">
-        <v>22.84811124507715</v>
+        <v>22.84811124507714</v>
       </c>
     </row>
     <row r="2712" spans="1:2">
@@ -22047,7 +22047,7 @@
         <v>2713</v>
       </c>
       <c r="B2713">
-        <v>38.92422999980658</v>
+        <v>38.92422999980657</v>
       </c>
     </row>
     <row r="2714" spans="1:2">
@@ -22431,7 +22431,7 @@
         <v>2761</v>
       </c>
       <c r="B2761">
-        <v>3.694951734130644</v>
+        <v>3.694951734130643</v>
       </c>
     </row>
     <row r="2762" spans="1:2">
@@ -22655,7 +22655,7 @@
         <v>2789</v>
       </c>
       <c r="B2789">
-        <v>27.43988966461537</v>
+        <v>27.43988966461536</v>
       </c>
     </row>
     <row r="2790" spans="1:2">
@@ -22999,7 +22999,7 @@
         <v>2832</v>
       </c>
       <c r="B2832">
-        <v>7.285716714017179</v>
+        <v>7.285716714017178</v>
       </c>
     </row>
     <row r="2833" spans="1:2">
@@ -23199,7 +23199,7 @@
         <v>2857</v>
       </c>
       <c r="B2857">
-        <v>3.730178872977737</v>
+        <v>3.730178872977736</v>
       </c>
     </row>
     <row r="2858" spans="1:2">
@@ -23207,7 +23207,7 @@
         <v>2858</v>
       </c>
       <c r="B2858">
-        <v>12.38137217032586</v>
+        <v>12.38137217032585</v>
       </c>
     </row>
     <row r="2859" spans="1:2">
@@ -23799,7 +23799,7 @@
         <v>2932</v>
       </c>
       <c r="B2932">
-        <v>0.4468073134119272</v>
+        <v>0.4468073134119271</v>
       </c>
     </row>
     <row r="2933" spans="1:2">
@@ -23967,7 +23967,7 @@
         <v>2953</v>
       </c>
       <c r="B2953">
-        <v>10.31314054338888</v>
+        <v>10.31314054338887</v>
       </c>
     </row>
     <row r="2954" spans="1:2">
@@ -24199,7 +24199,7 @@
         <v>2982</v>
       </c>
       <c r="B2982">
-        <v>25.72943916167616</v>
+        <v>25.72943916167615</v>
       </c>
     </row>
     <row r="2983" spans="1:2">
@@ -24567,7 +24567,7 @@
         <v>3028</v>
       </c>
       <c r="B3028">
-        <v>0.8938959750209693</v>
+        <v>0.8938959750209692</v>
       </c>
     </row>
     <row r="3029" spans="1:2">
@@ -25159,7 +25159,7 @@
         <v>3102</v>
       </c>
       <c r="B3102">
-        <v>0.116923035442253</v>
+        <v>0.1169230354422529</v>
       </c>
     </row>
     <row r="3103" spans="1:2">
@@ -25895,7 +25895,7 @@
         <v>3194</v>
       </c>
       <c r="B3194">
-        <v>0.7903100164061169</v>
+        <v>0.7903100164061168</v>
       </c>
     </row>
     <row r="3195" spans="1:2">
@@ -26687,7 +26687,7 @@
         <v>3293</v>
       </c>
       <c r="B3293">
-        <v>0.1606266679405488</v>
+        <v>0.1606266679405487</v>
       </c>
     </row>
     <row r="3294" spans="1:2">
@@ -26775,7 +26775,7 @@
         <v>3304</v>
       </c>
       <c r="B3304">
-        <v>0.08199160527316859</v>
+        <v>0.0819916052731685</v>
       </c>
     </row>
     <row r="3305" spans="1:2">
@@ -26871,7 +26871,7 @@
         <v>3316</v>
       </c>
       <c r="B3316">
-        <v>35.34495340463557</v>
+        <v>35.34495340463556</v>
       </c>
     </row>
     <row r="3317" spans="1:2">
@@ -27039,7 +27039,7 @@
         <v>3337</v>
       </c>
       <c r="B3337">
-        <v>7.766089453486989</v>
+        <v>7.766089453486988</v>
       </c>
     </row>
     <row r="3338" spans="1:2">
@@ -27271,7 +27271,7 @@
         <v>3366</v>
       </c>
       <c r="B3366">
-        <v>32.14256616518305</v>
+        <v>32.14256616518304</v>
       </c>
     </row>
     <row r="3367" spans="1:2">
@@ -27407,7 +27407,7 @@
         <v>3383</v>
       </c>
       <c r="B3383">
-        <v>1.404164891144625</v>
+        <v>1.404164891144624</v>
       </c>
     </row>
     <row r="3384" spans="1:2">
@@ -27607,7 +27607,7 @@
         <v>3408</v>
       </c>
       <c r="B3408">
-        <v>0.8562216930010534</v>
+        <v>0.8562216930010533</v>
       </c>
     </row>
     <row r="3409" spans="1:2">
@@ -27655,7 +27655,7 @@
         <v>3414</v>
       </c>
       <c r="B3414">
-        <v>11.45585383023333</v>
+        <v>11.45585383023332</v>
       </c>
     </row>
     <row r="3415" spans="1:2">
@@ -30895,7 +30895,7 @@
         <v>3819</v>
       </c>
       <c r="B3819">
-        <v>0.362848322256225</v>
+        <v>0.3628483222562249</v>
       </c>
     </row>
     <row r="3820" spans="1:2">
@@ -42031,7 +42031,7 @@
         <v>5211</v>
       </c>
       <c r="B5211">
-        <v>0.4849475783833147</v>
+        <v>0.4849475783833146</v>
       </c>
     </row>
     <row r="5212" spans="1:2">
@@ -42063,7 +42063,7 @@
         <v>5215</v>
       </c>
       <c r="B5215">
-        <v>0.4487386515567055</v>
+        <v>0.4487386515567054</v>
       </c>
     </row>
     <row r="5216" spans="1:2">
@@ -45303,7 +45303,7 @@
         <v>5620</v>
       </c>
       <c r="B5620">
-        <v>0.2952045958227999</v>
+        <v>0.2952045958227998</v>
       </c>
     </row>
     <row r="5621" spans="1:2">
@@ -45319,7 +45319,7 @@
         <v>5622</v>
       </c>
       <c r="B5622">
-        <v>0.4346624495698011</v>
+        <v>0.434662449569801</v>
       </c>
     </row>
     <row r="5623" spans="1:2">
@@ -45503,7 +45503,7 @@
         <v>5645</v>
       </c>
       <c r="B5645">
-        <v>0.8540734822876657</v>
+        <v>0.8540734822876656</v>
       </c>
     </row>
     <row r="5646" spans="1:2">
@@ -47615,7 +47615,7 @@
         <v>5909</v>
       </c>
       <c r="B5909">
-        <v>6.003794683808588</v>
+        <v>6.003794683808587</v>
       </c>
     </row>
     <row r="5910" spans="1:2">
@@ -47983,7 +47983,7 @@
         <v>5955</v>
       </c>
       <c r="B5955">
-        <v>0.5165963198483534</v>
+        <v>0.5165963198483533</v>
       </c>
     </row>
     <row r="5956" spans="1:2">
@@ -51047,7 +51047,7 @@
         <v>6338</v>
       </c>
       <c r="B6338">
-        <v>10.54302546611484</v>
+        <v>10.54302546611483</v>
       </c>
     </row>
     <row r="6339" spans="1:2">
@@ -51271,7 +51271,7 @@
         <v>6366</v>
       </c>
       <c r="B6366">
-        <v>3.72378992433492</v>
+        <v>3.723789924334919</v>
       </c>
     </row>
     <row r="6367" spans="1:2">
@@ -52791,7 +52791,7 @@
         <v>6556</v>
       </c>
       <c r="B6556">
-        <v>6.289568253607266</v>
+        <v>6.289568253607265</v>
       </c>
     </row>
     <row r="6557" spans="1:2">
@@ -52799,7 +52799,7 @@
         <v>6557</v>
       </c>
       <c r="B6557">
-        <v>7.785109763896111</v>
+        <v>7.78510976389611</v>
       </c>
     </row>
     <row r="6558" spans="1:2">
@@ -52831,7 +52831,7 @@
         <v>6561</v>
       </c>
       <c r="B6561">
-        <v>7.598130441230173</v>
+        <v>7.598130441230172</v>
       </c>
     </row>
     <row r="6562" spans="1:2">
@@ -52951,7 +52951,7 @@
         <v>6576</v>
       </c>
       <c r="B6576">
-        <v>3.182370487511951</v>
+        <v>3.18237048751195</v>
       </c>
     </row>
     <row r="6577" spans="1:2">
@@ -52959,7 +52959,7 @@
         <v>6577</v>
       </c>
       <c r="B6577">
-        <v>5.545490193549976</v>
+        <v>5.545490193549975</v>
       </c>
     </row>
     <row r="6578" spans="1:2">
@@ -52967,7 +52967,7 @@
         <v>6578</v>
       </c>
       <c r="B6578">
-        <v>7.853659079838999</v>
+        <v>7.853659079838998</v>
       </c>
     </row>
     <row r="6579" spans="1:2">
@@ -53015,7 +53015,7 @@
         <v>6584</v>
       </c>
       <c r="B6584">
-        <v>0.5537489354194521</v>
+        <v>0.553748935419452</v>
       </c>
     </row>
     <row r="6585" spans="1:2">
@@ -53567,7 +53567,7 @@
         <v>6653</v>
       </c>
       <c r="B6653">
-        <v>2.454572523652299</v>
+        <v>2.454572523652298</v>
       </c>
     </row>
     <row r="6654" spans="1:2">
@@ -53975,7 +53975,7 @@
         <v>6704</v>
       </c>
       <c r="B6704">
-        <v>8.448270910179003</v>
+        <v>8.448270910179001</v>
       </c>
     </row>
     <row r="6705" spans="1:2">
@@ -54015,7 +54015,7 @@
         <v>6709</v>
       </c>
       <c r="B6709">
-        <v>0.5034432916332322</v>
+        <v>0.5034432916332321</v>
       </c>
     </row>
     <row r="6710" spans="1:2">
@@ -54087,7 +54087,7 @@
         <v>6718</v>
       </c>
       <c r="B6718">
-        <v>6.375584603454371</v>
+        <v>6.37558460345437</v>
       </c>
     </row>
     <row r="6719" spans="1:2">
@@ -54199,7 +54199,7 @@
         <v>6732</v>
       </c>
       <c r="B6732">
-        <v>1.914536382131811</v>
+        <v>1.91453638213181</v>
       </c>
     </row>
     <row r="6733" spans="1:2">
@@ -54247,7 +54247,7 @@
         <v>6738</v>
       </c>
       <c r="B6738">
-        <v>0.2620770178966761</v>
+        <v>0.262077017896676</v>
       </c>
     </row>
     <row r="6739" spans="1:2">
@@ -54255,7 +54255,7 @@
         <v>6739</v>
       </c>
       <c r="B6739">
-        <v>0.5596836239523444</v>
+        <v>0.5596836239523443</v>
       </c>
     </row>
     <row r="6740" spans="1:2">
@@ -54319,7 +54319,7 @@
         <v>6747</v>
       </c>
       <c r="B6747">
-        <v>52.94679998663597</v>
+        <v>52.94679998663596</v>
       </c>
     </row>
     <row r="6748" spans="1:2">
@@ -54383,7 +54383,7 @@
         <v>6755</v>
       </c>
       <c r="B6755">
-        <v>7.228714396997547</v>
+        <v>7.228714396997546</v>
       </c>
     </row>
     <row r="6756" spans="1:2">
@@ -54391,7 +54391,7 @@
         <v>6756</v>
       </c>
       <c r="B6756">
-        <v>3.953469697333816</v>
+        <v>3.953469697333815</v>
       </c>
     </row>
     <row r="6757" spans="1:2">
@@ -54711,7 +54711,7 @@
         <v>6796</v>
       </c>
       <c r="B6796">
-        <v>7.836133431727051</v>
+        <v>7.83613343172705</v>
       </c>
     </row>
     <row r="6797" spans="1:2">
@@ -54919,7 +54919,7 @@
         <v>6822</v>
       </c>
       <c r="B6822">
-        <v>5.456044912550533</v>
+        <v>5.456044912550532</v>
       </c>
     </row>
     <row r="6823" spans="1:2">
@@ -55287,7 +55287,7 @@
         <v>6868</v>
       </c>
       <c r="B6868">
-        <v>0.4957677611306916</v>
+        <v>0.4957677611306915</v>
       </c>
     </row>
     <row r="6869" spans="1:2">
@@ -55503,7 +55503,7 @@
         <v>6895</v>
       </c>
       <c r="B6895">
-        <v>3.906930016394393</v>
+        <v>3.906930016394394</v>
       </c>
     </row>
     <row r="6896" spans="1:2">
@@ -55823,7 +55823,7 @@
         <v>6935</v>
       </c>
       <c r="B6935">
-        <v>0.7968220548851719</v>
+        <v>0.7968220548851718</v>
       </c>
     </row>
     <row r="6936" spans="1:2">
@@ -55847,7 +55847,7 @@
         <v>6938</v>
       </c>
       <c r="B6938">
-        <v>20.24341308187057</v>
+        <v>20.24341308187056</v>
       </c>
     </row>
     <row r="6939" spans="1:2">
@@ -55871,7 +55871,7 @@
         <v>6941</v>
       </c>
       <c r="B6941">
-        <v>30.77011449113197</v>
+        <v>30.77011449113196</v>
       </c>
     </row>
     <row r="6942" spans="1:2">
@@ -55943,7 +55943,7 @@
         <v>6950</v>
       </c>
       <c r="B6950">
-        <v>0.1183763747229746</v>
+        <v>0.1183763747229745</v>
       </c>
     </row>
     <row r="6951" spans="1:2">
@@ -56063,7 +56063,7 @@
         <v>6965</v>
       </c>
       <c r="B6965">
-        <v>35.35784853033667</v>
+        <v>35.35784853033666</v>
       </c>
     </row>
     <row r="6966" spans="1:2">
@@ -56087,7 +56087,7 @@
         <v>6968</v>
       </c>
       <c r="B6968">
-        <v>15.32491906843268</v>
+        <v>15.32491906843267</v>
       </c>
     </row>
     <row r="6969" spans="1:2">
@@ -56199,7 +56199,7 @@
         <v>6982</v>
       </c>
       <c r="B6982">
-        <v>0.8280927347103375</v>
+        <v>0.8280927347103374</v>
       </c>
     </row>
     <row r="6983" spans="1:2">
@@ -56447,7 +56447,7 @@
         <v>7013</v>
       </c>
       <c r="B7013">
-        <v>27.36867340222066</v>
+        <v>27.36867340222065</v>
       </c>
     </row>
     <row r="7014" spans="1:2">
@@ -56487,7 +56487,7 @@
         <v>7018</v>
       </c>
       <c r="B7018">
-        <v>0.8001366883324317</v>
+        <v>0.8001366883324316</v>
       </c>
     </row>
     <row r="7019" spans="1:2">
@@ -56631,7 +56631,7 @@
         <v>7036</v>
       </c>
       <c r="B7036">
-        <v>7.821860872144243</v>
+        <v>7.821860872144242</v>
       </c>
     </row>
     <row r="7037" spans="1:2">
@@ -56655,7 +56655,7 @@
         <v>7039</v>
       </c>
       <c r="B7039">
-        <v>6.273478653584758</v>
+        <v>6.273478653584757</v>
       </c>
     </row>
     <row r="7040" spans="1:2">
@@ -56663,7 +56663,7 @@
         <v>7040</v>
       </c>
       <c r="B7040">
-        <v>0.6501312079040088</v>
+        <v>0.6501312079040087</v>
       </c>
     </row>
     <row r="7041" spans="1:2">
@@ -56815,7 +56815,7 @@
         <v>7059</v>
       </c>
       <c r="B7059">
-        <v>1.370576019403648</v>
+        <v>1.370576019403647</v>
       </c>
     </row>
     <row r="7060" spans="1:2">
@@ -56847,7 +56847,7 @@
         <v>7063</v>
       </c>
       <c r="B7063">
-        <v>1.962254208646651</v>
+        <v>1.96225420864665</v>
       </c>
     </row>
     <row r="7064" spans="1:2">
@@ -57583,7 +57583,7 @@
         <v>7155</v>
       </c>
       <c r="B7155">
-        <v>7.052285631723417</v>
+        <v>7.052285631723416</v>
       </c>
     </row>
     <row r="7156" spans="1:2">
@@ -57743,7 +57743,7 @@
         <v>7175</v>
       </c>
       <c r="B7175">
-        <v>6.812963821552562</v>
+        <v>6.812963821552561</v>
       </c>
     </row>
     <row r="7176" spans="1:2">
@@ -57791,7 +57791,7 @@
         <v>7181</v>
       </c>
       <c r="B7181">
-        <v>37.98435117881965</v>
+        <v>37.98435117881964</v>
       </c>
     </row>
     <row r="7182" spans="1:2">
@@ -57807,7 +57807,7 @@
         <v>7183</v>
       </c>
       <c r="B7183">
-        <v>39.543489104498</v>
+        <v>39.54348910449799</v>
       </c>
     </row>
     <row r="7184" spans="1:2">
@@ -57959,7 +57959,7 @@
         <v>7202</v>
       </c>
       <c r="B7202">
-        <v>38.21118816274353</v>
+        <v>38.21118816274352</v>
       </c>
     </row>
     <row r="7203" spans="1:2">
@@ -57983,7 +57983,7 @@
         <v>7205</v>
       </c>
       <c r="B7205">
-        <v>50.45012780827997</v>
+        <v>50.45012780827996</v>
       </c>
     </row>
     <row r="7206" spans="1:2">
@@ -57999,7 +57999,7 @@
         <v>7207</v>
       </c>
       <c r="B7207">
-        <v>44.39674550472988</v>
+        <v>44.39674550472987</v>
       </c>
     </row>
     <row r="7208" spans="1:2">
@@ -58023,7 +58023,7 @@
         <v>7210</v>
       </c>
       <c r="B7210">
-        <v>13.80294255045658</v>
+        <v>13.80294255045657</v>
       </c>
     </row>
     <row r="7211" spans="1:2">
@@ -58047,7 +58047,7 @@
         <v>7213</v>
       </c>
       <c r="B7213">
-        <v>6.232097022925776</v>
+        <v>6.232097022925775</v>
       </c>
     </row>
     <row r="7214" spans="1:2">
@@ -58087,7 +58087,7 @@
         <v>7218</v>
       </c>
       <c r="B7218">
-        <v>8.409526918867973</v>
+        <v>8.409526918867972</v>
       </c>
     </row>
     <row r="7219" spans="1:2">
@@ -58135,7 +58135,7 @@
         <v>7224</v>
       </c>
       <c r="B7224">
-        <v>39.63287577128971</v>
+        <v>39.6328757712897</v>
       </c>
     </row>
     <row r="7225" spans="1:2">
@@ -58207,7 +58207,7 @@
         <v>7233</v>
       </c>
       <c r="B7233">
-        <v>28.73749099539234</v>
+        <v>28.73749099539233</v>
       </c>
     </row>
     <row r="7234" spans="1:2">
@@ -58231,7 +58231,7 @@
         <v>7236</v>
       </c>
       <c r="B7236">
-        <v>8.00634909098156</v>
+        <v>8.006349090981558</v>
       </c>
     </row>
     <row r="7237" spans="1:2">
@@ -58247,7 +58247,7 @@
         <v>7238</v>
       </c>
       <c r="B7238">
-        <v>1.527943444323244</v>
+        <v>1.527943444323243</v>
       </c>
     </row>
     <row r="7239" spans="1:2">
@@ -58407,7 +58407,7 @@
         <v>7258</v>
       </c>
       <c r="B7258">
-        <v>5.512666237219905</v>
+        <v>5.512666237219904</v>
       </c>
     </row>
     <row r="7259" spans="1:2">
@@ -58615,7 +58615,7 @@
         <v>7284</v>
       </c>
       <c r="B7284">
-        <v>3.073553210856993</v>
+        <v>3.073553210856992</v>
       </c>
     </row>
     <row r="7285" spans="1:2">
@@ -58775,7 +58775,7 @@
         <v>7304</v>
       </c>
       <c r="B7304">
-        <v>24.3081618525841</v>
+        <v>24.30816185258409</v>
       </c>
     </row>
     <row r="7305" spans="1:2">
@@ -59127,7 +59127,7 @@
         <v>7348</v>
       </c>
       <c r="B7348">
-        <v>37.47470064258757</v>
+        <v>37.47470064258756</v>
       </c>
     </row>
     <row r="7349" spans="1:2">
@@ -59183,7 +59183,7 @@
         <v>7355</v>
       </c>
       <c r="B7355">
-        <v>3.616027703419143</v>
+        <v>3.616027703419142</v>
       </c>
     </row>
     <row r="7356" spans="1:2">
@@ -59335,7 +59335,7 @@
         <v>7374</v>
       </c>
       <c r="B7374">
-        <v>15.89400441130528</v>
+        <v>15.89400441130527</v>
       </c>
     </row>
     <row r="7375" spans="1:2">
@@ -59471,7 +59471,7 @@
         <v>7391</v>
       </c>
       <c r="B7391">
-        <v>0.421099121900554</v>
+        <v>0.4210991219005539</v>
       </c>
     </row>
     <row r="7392" spans="1:2">
@@ -59623,7 +59623,7 @@
         <v>7410</v>
       </c>
       <c r="B7410">
-        <v>7.899993611051358</v>
+        <v>7.899993611051357</v>
       </c>
     </row>
     <row r="7411" spans="1:2">
@@ -59711,7 +59711,7 @@
         <v>7421</v>
       </c>
       <c r="B7421">
-        <v>63.24707471142761</v>
+        <v>63.2470747114276</v>
       </c>
     </row>
     <row r="7422" spans="1:2">
@@ -59735,7 +59735,7 @@
         <v>7424</v>
       </c>
       <c r="B7424">
-        <v>40.72573767445787</v>
+        <v>40.72573767445786</v>
       </c>
     </row>
     <row r="7425" spans="1:2">
@@ -59807,7 +59807,7 @@
         <v>7433</v>
       </c>
       <c r="B7433">
-        <v>4.712084080908708</v>
+        <v>4.712084080908707</v>
       </c>
     </row>
     <row r="7434" spans="1:2">
@@ -59823,7 +59823,7 @@
         <v>7435</v>
       </c>
       <c r="B7435">
-        <v>7.726495556163842</v>
+        <v>7.726495556163841</v>
       </c>
     </row>
     <row r="7436" spans="1:2">
@@ -59967,7 +59967,7 @@
         <v>7453</v>
       </c>
       <c r="B7453">
-        <v>5.547307233989677</v>
+        <v>5.547307233989676</v>
       </c>
     </row>
     <row r="7454" spans="1:2">
@@ -60199,7 +60199,7 @@
         <v>7482</v>
       </c>
       <c r="B7482">
-        <v>0.3829793719018728</v>
+        <v>0.3829793719018727</v>
       </c>
     </row>
     <row r="7483" spans="1:2">
@@ -60335,7 +60335,7 @@
         <v>7499</v>
       </c>
       <c r="B7499">
-        <v>2.522060922435233</v>
+        <v>2.522060922435232</v>
       </c>
     </row>
     <row r="7500" spans="1:2">
@@ -60343,7 +60343,7 @@
         <v>7500</v>
       </c>
       <c r="B7500">
-        <v>5.169802429089997</v>
+        <v>5.169802429089996</v>
       </c>
     </row>
     <row r="7501" spans="1:2">
@@ -60487,7 +60487,7 @@
         <v>7518</v>
       </c>
       <c r="B7518">
-        <v>13.0730491286705</v>
+        <v>13.07304912867049</v>
       </c>
     </row>
     <row r="7519" spans="1:2">
@@ -60511,7 +60511,7 @@
         <v>7521</v>
       </c>
       <c r="B7521">
-        <v>0.8848137035328543</v>
+        <v>0.8848137035328542</v>
       </c>
     </row>
     <row r="7522" spans="1:2">
@@ -60591,7 +60591,7 @@
         <v>7531</v>
       </c>
       <c r="B7531">
-        <v>0.6288308048141021</v>
+        <v>0.628830804814102</v>
       </c>
     </row>
     <row r="7532" spans="1:2">
@@ -60599,7 +60599,7 @@
         <v>7532</v>
       </c>
       <c r="B7532">
-        <v>0.3874428438206851</v>
+        <v>0.387442843820685</v>
       </c>
     </row>
     <row r="7533" spans="1:2">
@@ -60671,7 +60671,7 @@
         <v>7541</v>
       </c>
       <c r="B7541">
-        <v>26.16737521474781</v>
+        <v>26.1673752147478</v>
       </c>
     </row>
     <row r="7542" spans="1:2">
@@ -60855,7 +60855,7 @@
         <v>7564</v>
       </c>
       <c r="B7564">
-        <v>40.3714147887163</v>
+        <v>40.37141478871629</v>
       </c>
     </row>
     <row r="7565" spans="1:2">
@@ -60911,7 +60911,7 @@
         <v>7571</v>
       </c>
       <c r="B7571">
-        <v>5.532184768394751</v>
+        <v>5.53218476839475</v>
       </c>
     </row>
     <row r="7572" spans="1:2">
@@ -61023,7 +61023,7 @@
         <v>7585</v>
       </c>
       <c r="B7585">
-        <v>36.75638352682861</v>
+        <v>36.7563835268286</v>
       </c>
     </row>
     <row r="7586" spans="1:2">
@@ -61055,7 +61055,7 @@
         <v>7589</v>
       </c>
       <c r="B7589">
-        <v>55.99092886521136</v>
+        <v>55.99092886521135</v>
       </c>
     </row>
     <row r="7590" spans="1:2">
@@ -61071,7 +61071,7 @@
         <v>7591</v>
       </c>
       <c r="B7591">
-        <v>63.25733219778076</v>
+        <v>63.25733219778075</v>
       </c>
     </row>
     <row r="7592" spans="1:2">
@@ -61119,7 +61119,7 @@
         <v>7597</v>
       </c>
       <c r="B7597">
-        <v>6.227906107072919</v>
+        <v>6.227906107072918</v>
       </c>
     </row>
     <row r="7598" spans="1:2">
@@ -61135,7 +61135,7 @@
         <v>7599</v>
       </c>
       <c r="B7599">
-        <v>5.379817135394718</v>
+        <v>5.379817135394717</v>
       </c>
     </row>
     <row r="7600" spans="1:2">
@@ -61199,7 +61199,7 @@
         <v>7607</v>
       </c>
       <c r="B7607">
-        <v>1.593479989988694</v>
+        <v>1.593479989988693</v>
       </c>
     </row>
     <row r="7608" spans="1:2">
@@ -61415,7 +61415,7 @@
         <v>7634</v>
       </c>
       <c r="B7634">
-        <v>50.75345633329446</v>
+        <v>50.75345633329445</v>
       </c>
     </row>
     <row r="7635" spans="1:2">
@@ -61423,7 +61423,7 @@
         <v>7635</v>
       </c>
       <c r="B7635">
-        <v>61.7512401301001</v>
+        <v>61.75124013010009</v>
       </c>
     </row>
     <row r="7636" spans="1:2">
@@ -61431,7 +61431,7 @@
         <v>7636</v>
       </c>
       <c r="B7636">
-        <v>63.6497543185483</v>
+        <v>63.64975431854829</v>
       </c>
     </row>
     <row r="7637" spans="1:2">
@@ -61487,7 +61487,7 @@
         <v>7643</v>
       </c>
       <c r="B7643">
-        <v>20.15411433639046</v>
+        <v>20.15411433639045</v>
       </c>
     </row>
     <row r="7644" spans="1:2">
@@ -61647,7 +61647,7 @@
         <v>7663</v>
       </c>
       <c r="B7663">
-        <v>89.82011885789045</v>
+        <v>89.82011885789044</v>
       </c>
     </row>
     <row r="7664" spans="1:2">
@@ -61655,7 +61655,7 @@
         <v>7664</v>
       </c>
       <c r="B7664">
-        <v>80.40433252777875</v>
+        <v>80.40433252777873</v>
       </c>
     </row>
     <row r="7665" spans="1:2">
@@ -61711,7 +61711,7 @@
         <v>7671</v>
       </c>
       <c r="B7671">
-        <v>14.91382832250241</v>
+        <v>14.9138283225024</v>
       </c>
     </row>
     <row r="7672" spans="1:2">
@@ -61751,7 +61751,7 @@
         <v>7676</v>
       </c>
       <c r="B7676">
-        <v>5.950895361330215</v>
+        <v>5.950895361330214</v>
       </c>
     </row>
     <row r="7677" spans="1:2">
@@ -61935,7 +61935,7 @@
         <v>7699</v>
       </c>
       <c r="B7699">
-        <v>13.55169274901221</v>
+        <v>13.5516927490122</v>
       </c>
     </row>
     <row r="7700" spans="1:2">
@@ -61943,7 +61943,7 @@
         <v>7700</v>
       </c>
       <c r="B7700">
-        <v>9.724097062783438</v>
+        <v>9.724097062783436</v>
       </c>
     </row>
     <row r="7701" spans="1:2">
@@ -61975,7 +61975,7 @@
         <v>7704</v>
       </c>
       <c r="B7704">
-        <v>43.12042113135972</v>
+        <v>43.12042113135971</v>
       </c>
     </row>
     <row r="7705" spans="1:2">
@@ -62007,7 +62007,7 @@
         <v>7708</v>
       </c>
       <c r="B7708">
-        <v>69.5718407967781</v>
+        <v>69.57184079677809</v>
       </c>
     </row>
     <row r="7709" spans="1:2">
@@ -62015,7 +62015,7 @@
         <v>7709</v>
       </c>
       <c r="B7709">
-        <v>73.16840858323013</v>
+        <v>73.16840858323012</v>
       </c>
     </row>
     <row r="7710" spans="1:2">
@@ -62023,7 +62023,7 @@
         <v>7710</v>
       </c>
       <c r="B7710">
-        <v>75.24481689214576</v>
+        <v>75.24481689214575</v>
       </c>
     </row>
     <row r="7711" spans="1:2">
@@ -62159,7 +62159,7 @@
         <v>7727</v>
       </c>
       <c r="B7727">
-        <v>36.16027703419143</v>
+        <v>36.16027703419142</v>
       </c>
     </row>
     <row r="7728" spans="1:2">
@@ -62279,7 +62279,7 @@
         <v>7742</v>
       </c>
       <c r="B7742">
-        <v>65.67135834323426</v>
+        <v>65.67135834323425</v>
       </c>
     </row>
     <row r="7743" spans="1:2">
@@ -62383,7 +62383,7 @@
         <v>7755</v>
       </c>
       <c r="B7755">
-        <v>94.30938102810494</v>
+        <v>94.30938102810492</v>
       </c>
     </row>
     <row r="7756" spans="1:2">
@@ -62503,7 +62503,7 @@
         <v>7770</v>
       </c>
       <c r="B7770">
-        <v>59.17602491338286</v>
+        <v>59.17602491338285</v>
       </c>
     </row>
     <row r="7771" spans="1:2">
@@ -62591,7 +62591,7 @@
         <v>7781</v>
       </c>
       <c r="B7781">
-        <v>92.59257088362678</v>
+        <v>92.59257088362676</v>
       </c>
     </row>
     <row r="7782" spans="1:2">
@@ -62639,7 +62639,7 @@
         <v>7787</v>
       </c>
       <c r="B7787">
-        <v>72.15760657088715</v>
+        <v>72.15760657088714</v>
       </c>
     </row>
     <row r="7788" spans="1:2">
@@ -62655,7 +62655,7 @@
         <v>7789</v>
       </c>
       <c r="B7789">
-        <v>52.54705108990189</v>
+        <v>52.54705108990188</v>
       </c>
     </row>
     <row r="7790" spans="1:2">
@@ -62695,7 +62695,7 @@
         <v>7794</v>
       </c>
       <c r="B7794">
-        <v>77.91996933304652</v>
+        <v>77.91996933304651</v>
       </c>
     </row>
     <row r="7795" spans="1:2">
@@ -62703,7 +62703,7 @@
         <v>7795</v>
       </c>
       <c r="B7795">
-        <v>68.02530492576219</v>
+        <v>68.02530492576217</v>
       </c>
     </row>
     <row r="7796" spans="1:2">
@@ -62743,7 +62743,7 @@
         <v>7800</v>
       </c>
       <c r="B7800">
-        <v>78.84724609937102</v>
+        <v>78.84724609937101</v>
       </c>
     </row>
     <row r="7801" spans="1:2">
@@ -62759,7 +62759,7 @@
         <v>7802</v>
       </c>
       <c r="B7802">
-        <v>96.105027281983</v>
+        <v>96.10502728198298</v>
       </c>
     </row>
     <row r="7803" spans="1:2">
@@ -62823,7 +62823,7 @@
         <v>7810</v>
       </c>
       <c r="B7810">
-        <v>55.19113800070455</v>
+        <v>55.19113800070454</v>
       </c>
     </row>
     <row r="7811" spans="1:2">
@@ -62855,7 +62855,7 @@
         <v>7814</v>
       </c>
       <c r="B7814">
-        <v>36.87859414995039</v>
+        <v>36.87859414995038</v>
       </c>
     </row>
     <row r="7815" spans="1:2">
@@ -62887,7 +62887,7 @@
         <v>7818</v>
       </c>
       <c r="B7818">
-        <v>72.98758375237608</v>
+        <v>72.98758375237607</v>
       </c>
     </row>
     <row r="7819" spans="1:2">
@@ -62895,7 +62895,7 @@
         <v>7819</v>
       </c>
       <c r="B7819">
-        <v>68.733364555168</v>
+        <v>68.73336455516798</v>
       </c>
     </row>
     <row r="7820" spans="1:2">
@@ -62983,7 +62983,7 @@
         <v>7830</v>
       </c>
       <c r="B7830">
-        <v>110.7465633024652</v>
+        <v>110.7465633024651</v>
       </c>
     </row>
     <row r="7831" spans="1:2">
@@ -63015,7 +63015,7 @@
         <v>7834</v>
       </c>
       <c r="B7834">
-        <v>61.31104743003076</v>
+        <v>61.31104743003075</v>
       </c>
     </row>
     <row r="7835" spans="1:2">
@@ -63055,7 +63055,7 @@
         <v>7839</v>
       </c>
       <c r="B7839">
-        <v>39.07223087433056</v>
+        <v>39.07223087433055</v>
       </c>
     </row>
     <row r="7840" spans="1:2">
@@ -63111,7 +63111,7 @@
         <v>7846</v>
       </c>
       <c r="B7846">
-        <v>53.90221157267195</v>
+        <v>53.90221157267194</v>
       </c>
     </row>
     <row r="7847" spans="1:2">
@@ -63119,7 +63119,7 @@
         <v>7847</v>
       </c>
       <c r="B7847">
-        <v>58.20009835464058</v>
+        <v>58.20009835464057</v>
       </c>
     </row>
     <row r="7848" spans="1:2">
@@ -63207,7 +63207,7 @@
         <v>7858</v>
       </c>
       <c r="B7858">
-        <v>55.69815089758868</v>
+        <v>55.69815089758867</v>
       </c>
     </row>
     <row r="7859" spans="1:2">
@@ -63215,7 +63215,7 @@
         <v>7859</v>
       </c>
       <c r="B7859">
-        <v>40.23132683223618</v>
+        <v>40.23132683223617</v>
       </c>
     </row>
     <row r="7860" spans="1:2">
@@ -63239,7 +63239,7 @@
         <v>7862</v>
       </c>
       <c r="B7862">
-        <v>25.97060731939058</v>
+        <v>25.97060731939057</v>
       </c>
     </row>
     <row r="7863" spans="1:2">
@@ -63255,7 +63255,7 @@
         <v>7864</v>
       </c>
       <c r="B7864">
-        <v>27.32591433767997</v>
+        <v>27.32591433767996</v>
       </c>
     </row>
     <row r="7865" spans="1:2">
@@ -63295,7 +63295,7 @@
         <v>7869</v>
       </c>
       <c r="B7869">
-        <v>39.5382138258021</v>
+        <v>39.53821382580209</v>
       </c>
     </row>
     <row r="7870" spans="1:2">
@@ -63327,7 +63327,7 @@
         <v>7873</v>
       </c>
       <c r="B7873">
-        <v>76.70460373571792</v>
+        <v>76.70460373571791</v>
       </c>
     </row>
     <row r="7874" spans="1:2">
@@ -63447,7 +63447,7 @@
         <v>7888</v>
       </c>
       <c r="B7888">
-        <v>76.56480885027646</v>
+        <v>76.56480885027645</v>
       </c>
     </row>
     <row r="7889" spans="1:2">
@@ -63495,7 +63495,7 @@
         <v>7894</v>
       </c>
       <c r="B7894">
-        <v>37.47206300323961</v>
+        <v>37.4720630032396</v>
       </c>
     </row>
     <row r="7895" spans="1:2">
@@ -63511,7 +63511,7 @@
         <v>7896</v>
       </c>
       <c r="B7896">
-        <v>43.38008207161367</v>
+        <v>43.38008207161366</v>
       </c>
     </row>
     <row r="7897" spans="1:2">
@@ -63615,7 +63615,7 @@
         <v>7909</v>
       </c>
       <c r="B7909">
-        <v>22.02786402207177</v>
+        <v>22.02786402207176</v>
       </c>
     </row>
     <row r="7910" spans="1:2">
@@ -63663,7 +63663,7 @@
         <v>7915</v>
       </c>
       <c r="B7915">
-        <v>6.443928769670196</v>
+        <v>6.443928769670195</v>
       </c>
     </row>
     <row r="7916" spans="1:2">
@@ -63695,7 +63695,7 @@
         <v>7919</v>
       </c>
       <c r="B7919">
-        <v>5.113093183109027</v>
+        <v>5.113093183109026</v>
       </c>
     </row>
     <row r="7920" spans="1:2">
@@ -63775,7 +63775,7 @@
         <v>7929</v>
       </c>
       <c r="B7929">
-        <v>20.56517577521686</v>
+        <v>20.56517577521685</v>
       </c>
     </row>
     <row r="7930" spans="1:2">
@@ -64135,7 +64135,7 @@
         <v>7974</v>
       </c>
       <c r="B7974">
-        <v>78.54919285305243</v>
+        <v>78.54919285305242</v>
       </c>
     </row>
     <row r="7975" spans="1:2">
@@ -64159,7 +64159,7 @@
         <v>7977</v>
       </c>
       <c r="B7977">
-        <v>52.39641257602996</v>
+        <v>52.39641257602995</v>
       </c>
     </row>
     <row r="7978" spans="1:2">
@@ -64263,7 +64263,7 @@
         <v>7990</v>
       </c>
       <c r="B7990">
-        <v>11.5384412489281</v>
+        <v>11.53844124892809</v>
       </c>
     </row>
     <row r="7991" spans="1:2">
@@ -64279,7 +64279,7 @@
         <v>7992</v>
       </c>
       <c r="B7992">
-        <v>37.06967646715759</v>
+        <v>37.06967646715758</v>
       </c>
     </row>
     <row r="7993" spans="1:2">
@@ -64287,7 +64287,7 @@
         <v>7993</v>
       </c>
       <c r="B7993">
-        <v>50.7326482895495</v>
+        <v>50.73264828954949</v>
       </c>
     </row>
     <row r="7994" spans="1:2">
@@ -64351,7 +64351,7 @@
         <v>8001</v>
       </c>
       <c r="B8001">
-        <v>41.8824890640542</v>
+        <v>41.88248906405419</v>
       </c>
     </row>
     <row r="8002" spans="1:2">
@@ -64375,7 +64375,7 @@
         <v>8004</v>
       </c>
       <c r="B8004">
-        <v>26.20063877763587</v>
+        <v>26.20063877763586</v>
       </c>
     </row>
     <row r="8005" spans="1:2">
@@ -64439,7 +64439,7 @@
         <v>8012</v>
       </c>
       <c r="B8012">
-        <v>21.2021656777473</v>
+        <v>21.20216567774729</v>
       </c>
     </row>
     <row r="8013" spans="1:2">
@@ -64447,7 +64447,7 @@
         <v>8013</v>
       </c>
       <c r="B8013">
-        <v>15.82530855984306</v>
+        <v>15.82530855984305</v>
       </c>
     </row>
     <row r="8014" spans="1:2">
@@ -64639,7 +64639,7 @@
         <v>8037</v>
       </c>
       <c r="B8037">
-        <v>0.8883510709694966</v>
+        <v>0.8883510709694965</v>
       </c>
     </row>
     <row r="8038" spans="1:2">
@@ -64719,7 +64719,7 @@
         <v>8047</v>
       </c>
       <c r="B8047">
-        <v>54.93909690745579</v>
+        <v>54.93909690745578</v>
       </c>
     </row>
     <row r="8048" spans="1:2">
@@ -64815,7 +64815,7 @@
         <v>8059</v>
       </c>
       <c r="B8059">
-        <v>4.626038423957738</v>
+        <v>4.626038423957737</v>
       </c>
     </row>
     <row r="8060" spans="1:2">
@@ -64871,7 +64871,7 @@
         <v>8066</v>
       </c>
       <c r="B8066">
-        <v>25.91427906575987</v>
+        <v>25.91427906575986</v>
       </c>
     </row>
     <row r="8067" spans="1:2">
@@ -64943,7 +64943,7 @@
         <v>8075</v>
       </c>
       <c r="B8075">
-        <v>8.643338993511994</v>
+        <v>8.643338993511993</v>
       </c>
     </row>
     <row r="8076" spans="1:2">
@@ -64967,7 +64967,7 @@
         <v>8078</v>
       </c>
       <c r="B8078">
-        <v>0.549663525140513</v>
+        <v>0.5496635251405129</v>
       </c>
     </row>
     <row r="8079" spans="1:2">
@@ -65055,7 +65055,7 @@
         <v>8089</v>
       </c>
       <c r="B8089">
-        <v>0.7673010091608146</v>
+        <v>0.7673010091608145</v>
       </c>
     </row>
     <row r="8090" spans="1:2">
@@ -65255,7 +65255,7 @@
         <v>8114</v>
       </c>
       <c r="B8114">
-        <v>0.8042250293217575</v>
+        <v>0.8042250293217574</v>
       </c>
     </row>
     <row r="8115" spans="1:2">
@@ -65967,7 +65967,7 @@
         <v>8203</v>
       </c>
       <c r="B8203">
-        <v>6.818678706806458</v>
+        <v>6.818678706806457</v>
       </c>
     </row>
     <row r="8204" spans="1:2">
@@ -66095,7 +66095,7 @@
         <v>8219</v>
       </c>
       <c r="B8219">
-        <v>7.423225645357081</v>
+        <v>7.42322564535708</v>
       </c>
     </row>
     <row r="8220" spans="1:2">
@@ -66175,7 +66175,7 @@
         <v>8229</v>
       </c>
       <c r="B8229">
-        <v>17.2366507607245</v>
+        <v>17.23665076072449</v>
       </c>
     </row>
     <row r="8230" spans="1:2">
@@ -66207,7 +66207,7 @@
         <v>8233</v>
       </c>
       <c r="B8233">
-        <v>50.85749655201924</v>
+        <v>50.85749655201923</v>
       </c>
     </row>
     <row r="8234" spans="1:2">
@@ -66431,7 +66431,7 @@
         <v>8261</v>
       </c>
       <c r="B8261">
-        <v>47.97865973924884</v>
+        <v>47.97865973924883</v>
       </c>
     </row>
     <row r="8262" spans="1:2">
@@ -66479,7 +66479,7 @@
         <v>8267</v>
       </c>
       <c r="B8267">
-        <v>16.14132706083159</v>
+        <v>16.14132706083158</v>
       </c>
     </row>
     <row r="8268" spans="1:2">
@@ -66559,7 +66559,7 @@
         <v>8277</v>
       </c>
       <c r="B8277">
-        <v>8.864783470324507</v>
+        <v>8.864783470324506</v>
       </c>
     </row>
     <row r="8278" spans="1:2">
@@ -66567,7 +66567,7 @@
         <v>8278</v>
       </c>
       <c r="B8278">
-        <v>12.48758111473673</v>
+        <v>12.48758111473672</v>
       </c>
     </row>
     <row r="8279" spans="1:2">
@@ -66591,7 +66591,7 @@
         <v>8281</v>
       </c>
       <c r="B8281">
-        <v>57.01286757702347</v>
+        <v>57.01286757702346</v>
       </c>
     </row>
     <row r="8282" spans="1:2">
@@ -66671,7 +66671,7 @@
         <v>8291</v>
       </c>
       <c r="B8291">
-        <v>45.6733629491387</v>
+        <v>45.67336294913869</v>
       </c>
     </row>
     <row r="8292" spans="1:2">
@@ -66719,7 +66719,7 @@
         <v>8297</v>
       </c>
       <c r="B8297">
-        <v>38.42776766031426</v>
+        <v>38.42776766031425</v>
       </c>
     </row>
     <row r="8298" spans="1:2">
@@ -66815,7 +66815,7 @@
         <v>8309</v>
       </c>
       <c r="B8309">
-        <v>61.09651942973066</v>
+        <v>61.09651942973065</v>
       </c>
     </row>
     <row r="8310" spans="1:2">
@@ -66847,7 +66847,7 @@
         <v>8313</v>
       </c>
       <c r="B8313">
-        <v>58.66139216949354</v>
+        <v>58.66139216949353</v>
       </c>
     </row>
     <row r="8314" spans="1:2">
@@ -66967,7 +66967,7 @@
         <v>8328</v>
       </c>
       <c r="B8328">
-        <v>35.14097596172727</v>
+        <v>35.14097596172726</v>
       </c>
     </row>
     <row r="8329" spans="1:2">
@@ -67023,7 +67023,7 @@
         <v>8335</v>
       </c>
       <c r="B8335">
-        <v>71.15354519243338</v>
+        <v>71.15354519243337</v>
       </c>
     </row>
     <row r="8336" spans="1:2">
@@ -67063,7 +67063,7 @@
         <v>8340</v>
       </c>
       <c r="B8340">
-        <v>24.74867693079597</v>
+        <v>24.74867693079596</v>
       </c>
     </row>
     <row r="8341" spans="1:2">
@@ -67103,7 +67103,7 @@
         <v>8345</v>
       </c>
       <c r="B8345">
-        <v>34.31070570919968</v>
+        <v>34.31070570919967</v>
       </c>
     </row>
     <row r="8346" spans="1:2">
@@ -67119,7 +67119,7 @@
         <v>8347</v>
       </c>
       <c r="B8347">
-        <v>33.76530050625092</v>
+        <v>33.76530050625091</v>
       </c>
     </row>
     <row r="8348" spans="1:2">
@@ -67431,7 +67431,7 @@
         <v>8386</v>
       </c>
       <c r="B8386">
-        <v>42.11137754524871</v>
+        <v>42.1113775452487</v>
       </c>
     </row>
     <row r="8387" spans="1:2">
@@ -67455,7 +67455,7 @@
         <v>8389</v>
       </c>
       <c r="B8389">
-        <v>11.9569466921365</v>
+        <v>11.95694669213649</v>
       </c>
     </row>
     <row r="8390" spans="1:2">
@@ -67575,7 +67575,7 @@
         <v>8404</v>
       </c>
       <c r="B8404">
-        <v>56.82149218877761</v>
+        <v>56.8214921887776</v>
       </c>
     </row>
     <row r="8405" spans="1:2">
@@ -67599,7 +67599,7 @@
         <v>8407</v>
       </c>
       <c r="B8407">
-        <v>49.44137729320762</v>
+        <v>49.44137729320761</v>
       </c>
     </row>
     <row r="8408" spans="1:2">
@@ -67687,7 +67687,7 @@
         <v>8418</v>
       </c>
       <c r="B8418">
-        <v>37.74754977958128</v>
+        <v>37.74754977958127</v>
       </c>
     </row>
     <row r="8419" spans="1:2">
@@ -67743,7 +67743,7 @@
         <v>8425</v>
       </c>
       <c r="B8425">
-        <v>56.50614775117801</v>
+        <v>56.506147751178</v>
       </c>
     </row>
     <row r="8426" spans="1:2">
@@ -67759,7 +67759,7 @@
         <v>8427</v>
       </c>
       <c r="B8427">
-        <v>68.99302549542195</v>
+        <v>68.99302549542193</v>
       </c>
     </row>
     <row r="8428" spans="1:2">
@@ -67799,7 +67799,7 @@
         <v>8432</v>
       </c>
       <c r="B8432">
-        <v>69.73478829427381</v>
+        <v>69.7347882942738</v>
       </c>
     </row>
     <row r="8433" spans="1:2">
@@ -68007,7 +68007,7 @@
         <v>8458</v>
       </c>
       <c r="B8458">
-        <v>31.04267055708702</v>
+        <v>31.04267055708701</v>
       </c>
     </row>
     <row r="8459" spans="1:2">
@@ -68063,7 +68063,7 @@
         <v>8465</v>
       </c>
       <c r="B8465">
-        <v>21.5908951034277</v>
+        <v>21.59089510342769</v>
       </c>
     </row>
     <row r="8466" spans="1:2">
@@ -68223,7 +68223,7 @@
         <v>8485</v>
       </c>
       <c r="B8485">
-        <v>6.227994028384517</v>
+        <v>6.227994028384516</v>
       </c>
     </row>
     <row r="8486" spans="1:2">
@@ -68295,7 +68295,7 @@
         <v>8494</v>
       </c>
       <c r="B8494">
-        <v>0.8121057095513611</v>
+        <v>0.812105709551361</v>
       </c>
     </row>
     <row r="8495" spans="1:2">
@@ -68319,7 +68319,7 @@
         <v>8497</v>
       </c>
       <c r="B8497">
-        <v>18.93719546255696</v>
+        <v>18.93719546255695</v>
       </c>
     </row>
     <row r="8498" spans="1:2">
@@ -68343,7 +68343,7 @@
         <v>8500</v>
       </c>
       <c r="B8500">
-        <v>37.56906951703652</v>
+        <v>37.56906951703651</v>
       </c>
     </row>
     <row r="8501" spans="1:2">
@@ -68407,7 +68407,7 @@
         <v>8508</v>
       </c>
       <c r="B8508">
-        <v>34.13750072535083</v>
+        <v>34.13750072535082</v>
       </c>
     </row>
     <row r="8509" spans="1:2">
@@ -68447,7 +68447,7 @@
         <v>8513</v>
       </c>
       <c r="B8513">
-        <v>23.98171002261923</v>
+        <v>23.98171002261922</v>
       </c>
     </row>
     <row r="8514" spans="1:2">
@@ -68511,7 +68511,7 @@
         <v>8521</v>
       </c>
       <c r="B8521">
-        <v>8.506211054522351</v>
+        <v>8.50621105452235</v>
       </c>
     </row>
     <row r="8522" spans="1:2">
@@ -68695,7 +68695,7 @@
         <v>8544</v>
       </c>
       <c r="B8544">
-        <v>85.36719749646997</v>
+        <v>85.36719749646996</v>
       </c>
     </row>
     <row r="8545" spans="1:2">
@@ -68807,7 +68807,7 @@
         <v>8558</v>
       </c>
       <c r="B8558">
-        <v>73.15639267064502</v>
+        <v>73.156392670645</v>
       </c>
     </row>
     <row r="8559" spans="1:2">
@@ -68839,7 +68839,7 @@
         <v>8562</v>
       </c>
       <c r="B8562">
-        <v>107.7812705332897</v>
+        <v>107.7812705332896</v>
       </c>
     </row>
     <row r="8563" spans="1:2">
@@ -68855,7 +68855,7 @@
         <v>8564</v>
       </c>
       <c r="B8564">
-        <v>88.77033839740551</v>
+        <v>88.7703383974055</v>
       </c>
     </row>
     <row r="8565" spans="1:2">
@@ -69167,7 +69167,7 @@
         <v>8603</v>
       </c>
       <c r="B8603">
-        <v>51.12536348135571</v>
+        <v>51.1253634813557</v>
       </c>
     </row>
     <row r="8604" spans="1:2">
@@ -69311,7 +69311,7 @@
         <v>8621</v>
       </c>
       <c r="B8621">
-        <v>122.5142447178342</v>
+        <v>122.5142447178341</v>
       </c>
     </row>
     <row r="8622" spans="1:2">
@@ -69399,7 +69399,7 @@
         <v>8632</v>
       </c>
       <c r="B8632">
-        <v>87.67542499696673</v>
+        <v>87.67542499696671</v>
       </c>
     </row>
     <row r="8633" spans="1:2">
@@ -69407,7 +69407,7 @@
         <v>8633</v>
       </c>
       <c r="B8633">
-        <v>94.77565705061514</v>
+        <v>94.77565705061512</v>
       </c>
     </row>
     <row r="8634" spans="1:2">
@@ -69455,7 +69455,7 @@
         <v>8639</v>
       </c>
       <c r="B8639">
-        <v>60.87261315619339</v>
+        <v>60.87261315619338</v>
       </c>
     </row>
     <row r="8640" spans="1:2">
@@ -69471,7 +69471,7 @@
         <v>8641</v>
       </c>
       <c r="B8641">
-        <v>94.24050933401952</v>
+        <v>94.24050933401951</v>
       </c>
     </row>
     <row r="8642" spans="1:2">
@@ -69479,7 +69479,7 @@
         <v>8642</v>
       </c>
       <c r="B8642">
-        <v>100.660523506935</v>
+        <v>100.6605235069349</v>
       </c>
     </row>
     <row r="8643" spans="1:2">
@@ -69551,7 +69551,7 @@
         <v>8651</v>
       </c>
       <c r="B8651">
-        <v>45.91543962707297</v>
+        <v>45.91543962707296</v>
       </c>
     </row>
     <row r="8652" spans="1:2">
@@ -69695,7 +69695,7 @@
         <v>8669</v>
       </c>
       <c r="B8669">
-        <v>82.61057130682136</v>
+        <v>82.61057130682134</v>
       </c>
     </row>
     <row r="8670" spans="1:2">
@@ -69727,7 +69727,7 @@
         <v>8673</v>
       </c>
       <c r="B8673">
-        <v>57.20160532592138</v>
+        <v>57.20160532592137</v>
       </c>
     </row>
     <row r="8674" spans="1:2">
@@ -69863,7 +69863,7 @@
         <v>8690</v>
       </c>
       <c r="B8690">
-        <v>65.81848000464225</v>
+        <v>65.81848000464224</v>
       </c>
     </row>
     <row r="8691" spans="1:2">
@@ -69879,7 +69879,7 @@
         <v>8692</v>
       </c>
       <c r="B8692">
-        <v>73.40814069285511</v>
+        <v>73.4081406928551</v>
       </c>
     </row>
     <row r="8693" spans="1:2">
@@ -69927,7 +69927,7 @@
         <v>8698</v>
       </c>
       <c r="B8698">
-        <v>65.99725333822568</v>
+        <v>65.99725333822566</v>
       </c>
     </row>
     <row r="8699" spans="1:2">
@@ -69943,7 +69943,7 @@
         <v>8700</v>
       </c>
       <c r="B8700">
-        <v>61.51971400955764</v>
+        <v>61.51971400955763</v>
       </c>
     </row>
     <row r="8701" spans="1:2">
@@ -69967,7 +69967,7 @@
         <v>8703</v>
       </c>
       <c r="B8703">
-        <v>60.88755977916512</v>
+        <v>60.88755977916511</v>
       </c>
     </row>
     <row r="8704" spans="1:2">
@@ -69983,7 +69983,7 @@
         <v>8705</v>
       </c>
       <c r="B8705">
-        <v>63.94223921513232</v>
+        <v>63.94223921513231</v>
       </c>
     </row>
     <row r="8706" spans="1:2">
@@ -70031,7 +70031,7 @@
         <v>8711</v>
       </c>
       <c r="B8711">
-        <v>38.69534151861207</v>
+        <v>38.69534151861206</v>
       </c>
     </row>
     <row r="8712" spans="1:2">
@@ -70095,7 +70095,7 @@
         <v>8719</v>
       </c>
       <c r="B8719">
-        <v>74.39901387456912</v>
+        <v>74.39901387456911</v>
       </c>
     </row>
     <row r="8720" spans="1:2">
@@ -70175,7 +70175,7 @@
         <v>8729</v>
       </c>
       <c r="B8729">
-        <v>73.45122213553833</v>
+        <v>73.45122213553832</v>
       </c>
     </row>
     <row r="8730" spans="1:2">
@@ -70207,7 +70207,7 @@
         <v>8733</v>
       </c>
       <c r="B8733">
-        <v>74.10623590694644</v>
+        <v>74.10623590694642</v>
       </c>
     </row>
     <row r="8734" spans="1:2">
@@ -70215,7 +70215,7 @@
         <v>8734</v>
       </c>
       <c r="B8734">
-        <v>84.92671172536197</v>
+        <v>84.92671172536195</v>
       </c>
     </row>
     <row r="8735" spans="1:2">
@@ -70231,7 +70231,7 @@
         <v>8736</v>
       </c>
       <c r="B8736">
-        <v>97.36874960069072</v>
+        <v>97.36874960069071</v>
       </c>
     </row>
     <row r="8737" spans="1:2">
